--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1A50C5-194B-474D-89ED-16166A92F897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D2D8B2-E7AE-410D-919D-7296B264D68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,9 @@
     <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1-2</t>
+  </si>
 </sst>
 </file>
 
@@ -354,7 +357,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000%"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.00000%"/>
+    <numFmt numFmtId="178" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -482,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,47 +555,23 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -655,134 +634,6 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1120,2219 +971,2517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="26"/>
-    <col min="2" max="2" width="14.625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="25.875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="45" style="26" customWidth="1"/>
-    <col min="5" max="5" width="15" style="26" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="28"/>
-    <col min="12" max="12" width="20.375" style="26" customWidth="1"/>
-    <col min="13" max="13" width="14" style="26" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="26"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="7"/>
+    <col min="12" max="12" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="26">
-        <v>0</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="26">
         <v>9.9999999999999994E+71</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2">
         <v>2000</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="10">
         <f>VLOOKUP(A2,Balance1!$B:$J,2,FALSE)</f>
         <v>0.999</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="10">
         <f>VLOOKUP(A2,Balance1!$B:$J,3,FALSE)</f>
         <v>1E-3</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="10">
         <f>VLOOKUP(A2,Balance1!$B:$J,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="10">
         <f>VLOOKUP(A2,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="10">
         <f>VLOOKUP(A2,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="9">
         <f>VLOOKUP(A2,Balance1!$B:$J,7,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="1">
         <f>VLOOKUP(A2,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2">
         <f>VLOOKUP(A2,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="26">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="26">
         <v>9.9999999999999998E+72</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3">
         <v>2200</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="10">
         <f>VLOOKUP(A3,Balance1!$B:$J,2,FALSE)</f>
         <v>0.998</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="10">
         <f>VLOOKUP(A3,Balance1!$B:$J,3,FALSE)</f>
         <v>2E-3</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="10">
         <f>VLOOKUP(A3,Balance1!$B:$J,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="10">
         <f>VLOOKUP(A3,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="10">
         <f>VLOOKUP(A3,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="9">
         <f>VLOOKUP(A3,Balance1!$B:$J,7,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="1">
         <f>VLOOKUP(A3,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3">
         <f>VLOOKUP(A3,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="26">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="26">
         <v>9.9999999999999995E+73</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4">
         <v>2400</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="10">
         <f>VLOOKUP(A4,Balance1!$B:$J,2,FALSE)</f>
         <v>0.997</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="10">
         <f>VLOOKUP(A4,Balance1!$B:$J,3,FALSE)</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="10">
         <f>VLOOKUP(A4,Balance1!$B:$J,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="10">
         <f>VLOOKUP(A4,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="10">
         <f>VLOOKUP(A4,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="9">
         <f>VLOOKUP(A4,Balance1!$B:$J,7,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="1">
         <f>VLOOKUP(A4,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4">
         <f>VLOOKUP(A4,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="26">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="26">
         <v>9.9999999999999993E+74</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5">
         <v>2600</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="10">
         <f>VLOOKUP(A5,Balance1!$B:$J,2,FALSE)</f>
         <v>0.996</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="10">
         <f>VLOOKUP(A5,Balance1!$B:$J,3,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="10">
         <f>VLOOKUP(A5,Balance1!$B:$J,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="10">
         <f>VLOOKUP(A5,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="10">
         <f>VLOOKUP(A5,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="9">
         <f>VLOOKUP(A5,Balance1!$B:$J,7,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="1">
         <f>VLOOKUP(A5,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5">
         <f>VLOOKUP(A5,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="26">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="26">
         <v>1E+76</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6">
         <v>2800</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="10">
         <f>VLOOKUP(A6,Balance1!$B:$J,2,FALSE)</f>
         <v>0.995</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="10">
         <f>VLOOKUP(A6,Balance1!$B:$J,3,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="10">
         <f>VLOOKUP(A6,Balance1!$B:$J,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="10">
         <f>VLOOKUP(A6,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="10">
         <f>VLOOKUP(A6,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="9">
         <f>VLOOKUP(A6,Balance1!$B:$J,7,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="1">
         <f>VLOOKUP(A6,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6">
         <f>VLOOKUP(A6,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A7" s="26">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="26">
         <v>9.9999999999999998E+76</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7">
         <v>3000</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="10">
         <f>VLOOKUP(A7,Balance1!$B:$J,2,FALSE)</f>
         <v>0.99399999999999999</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="10">
         <f>VLOOKUP(A7,Balance1!$B:$J,3,FALSE)</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="10">
         <f>VLOOKUP(A7,Balance1!$B:$J,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="10">
         <f>VLOOKUP(A7,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="10">
         <f>VLOOKUP(A7,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="9">
         <f>VLOOKUP(A7,Balance1!$B:$J,7,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="1">
         <f>VLOOKUP(A7,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7">
         <f>VLOOKUP(A7,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="26">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="26">
         <f>D7*10</f>
         <v>1E+78</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8">
         <v>3200</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="10">
         <f>VLOOKUP(A8,Balance1!$B:$J,2,FALSE)</f>
         <v>0.99299999999999999</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="10">
         <f>VLOOKUP(A8,Balance1!$B:$J,3,FALSE)</f>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="10">
         <f>VLOOKUP(A8,Balance1!$B:$J,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="10">
         <f>VLOOKUP(A8,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="10">
         <f>VLOOKUP(A8,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="9">
         <f>VLOOKUP(A8,Balance1!$B:$J,7,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="1">
         <f>VLOOKUP(A8,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8">
         <f>VLOOKUP(A8,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="26">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="32">
-        <f t="shared" ref="D9:D44" si="0">D8*10</f>
+      <c r="D9" s="26">
+        <f t="shared" ref="D9:D50" si="0">D8*10</f>
         <v>9.9999999999999997E+78</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9">
         <v>3400</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="10">
         <f>VLOOKUP(A9,Balance1!$B:$J,2,FALSE)</f>
         <v>0.99199999999999999</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="10">
         <f>VLOOKUP(A9,Balance1!$B:$J,3,FALSE)</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="10">
         <f>VLOOKUP(A9,Balance1!$B:$J,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="10">
         <f>VLOOKUP(A9,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="10">
         <f>VLOOKUP(A9,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="9">
         <f>VLOOKUP(A9,Balance1!$B:$J,7,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="1">
         <f>VLOOKUP(A9,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9">
         <f>VLOOKUP(A9,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="26">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="26">
         <f t="shared" si="0"/>
         <v>1E+80</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10">
         <v>3600</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="10">
         <f>VLOOKUP(A10,Balance1!$B:$J,2,FALSE)</f>
         <v>0.99099999999999999</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="10">
         <f>VLOOKUP(A10,Balance1!$B:$J,3,FALSE)</f>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="10">
         <f>VLOOKUP(A10,Balance1!$B:$J,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="10">
         <f>VLOOKUP(A10,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="10">
         <f>VLOOKUP(A10,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="9">
         <f>VLOOKUP(A10,Balance1!$B:$J,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="1">
         <f>VLOOKUP(A10,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10">
         <f>VLOOKUP(A10,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="26">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="26">
         <f t="shared" si="0"/>
         <v>9.9999999999999992E+80</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11">
         <v>3800</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="10">
         <f>VLOOKUP(A11,Balance1!$B:$J,2,FALSE)</f>
         <v>0.9899</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="10">
         <f>VLOOKUP(A11,Balance1!$B:$J,3,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="10">
         <f>VLOOKUP(A11,Balance1!$B:$J,4,FALSE)</f>
         <v>1E-4</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="10">
         <f>VLOOKUP(A11,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="10">
         <f>VLOOKUP(A11,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="9">
         <f>VLOOKUP(A11,Balance1!$B:$J,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="1">
         <f>VLOOKUP(A11,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11">
         <f>VLOOKUP(A11,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="26">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="26">
         <f t="shared" si="0"/>
         <v>9.9999999999999996E+81</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12">
         <v>4000</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="10">
         <f>VLOOKUP(A12,Balance1!$B:$J,2,FALSE)</f>
         <v>0.98487999999999998</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="10">
         <f>VLOOKUP(A12,Balance1!$B:$J,3,FALSE)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="10">
         <f>VLOOKUP(A12,Balance1!$B:$J,4,FALSE)</f>
         <v>1.2E-4</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="10">
         <f>VLOOKUP(A12,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="10">
         <f>VLOOKUP(A12,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="9">
         <f>VLOOKUP(A12,Balance1!$B:$J,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="1">
         <f>VLOOKUP(A12,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12">
         <f>VLOOKUP(A12,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="26">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="26">
         <f t="shared" si="0"/>
         <v>9.999999999999999E+82</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13">
         <v>4200</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="10">
         <f>VLOOKUP(A13,Balance1!$B:$J,2,FALSE)</f>
         <v>0.97985999999999995</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="10">
         <f>VLOOKUP(A13,Balance1!$B:$J,3,FALSE)</f>
         <v>0.02</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="10">
         <f>VLOOKUP(A13,Balance1!$B:$J,4,FALSE)</f>
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="10">
         <f>VLOOKUP(A13,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="10">
         <f>VLOOKUP(A13,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="9">
         <f>VLOOKUP(A13,Balance1!$B:$J,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="1">
         <f>VLOOKUP(A13,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13">
         <f>VLOOKUP(A13,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="26">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="26">
         <f t="shared" si="0"/>
         <v>9.9999999999999984E+83</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14">
         <v>4400</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="10">
         <f>VLOOKUP(A14,Balance1!$B:$J,2,FALSE)</f>
         <v>0.96984000000000004</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="10">
         <f>VLOOKUP(A14,Balance1!$B:$J,3,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="10">
         <f>VLOOKUP(A14,Balance1!$B:$J,4,FALSE)</f>
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="10">
         <f>VLOOKUP(A14,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="10">
         <f>VLOOKUP(A14,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="9">
         <f>VLOOKUP(A14,Balance1!$B:$J,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="1">
         <f>VLOOKUP(A14,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14">
         <f>VLOOKUP(A14,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="26">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="26">
         <f t="shared" si="0"/>
         <v>9.9999999999999984E+84</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15">
         <v>4600</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="10">
         <f>VLOOKUP(A15,Balance1!$B:$J,2,FALSE)</f>
         <v>0.95982000000000001</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="10">
         <f>VLOOKUP(A15,Balance1!$B:$J,3,FALSE)</f>
         <v>0.04</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="10">
         <f>VLOOKUP(A15,Balance1!$B:$J,4,FALSE)</f>
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="10">
         <f>VLOOKUP(A15,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="10">
         <f>VLOOKUP(A15,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="9">
         <f>VLOOKUP(A15,Balance1!$B:$J,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="1">
         <f>VLOOKUP(A15,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15">
         <f>VLOOKUP(A15,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="26">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="26">
         <f t="shared" si="0"/>
         <v>9.9999999999999988E+85</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16">
         <v>4800</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="10">
         <f>VLOOKUP(A16,Balance1!$B:$J,2,FALSE)</f>
         <v>0.94979999999999998</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="10">
         <f>VLOOKUP(A16,Balance1!$B:$J,3,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="10">
         <f>VLOOKUP(A16,Balance1!$B:$J,4,FALSE)</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="10">
         <f>VLOOKUP(A16,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="10">
         <f>VLOOKUP(A16,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="9">
         <f>VLOOKUP(A16,Balance1!$B:$J,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="1">
         <f>VLOOKUP(A16,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16">
         <f>VLOOKUP(A16,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="26">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="26">
         <f t="shared" si="0"/>
         <v>9.9999999999999996E+86</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17">
         <v>5000</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="10">
         <f>VLOOKUP(A17,Balance1!$B:$J,2,FALSE)</f>
         <v>0.93974999999999997</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="10">
         <f>VLOOKUP(A17,Balance1!$B:$J,3,FALSE)</f>
         <v>0.06</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="10">
         <f>VLOOKUP(A17,Balance1!$B:$J,4,FALSE)</f>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="10">
         <f>VLOOKUP(A17,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="10">
         <f>VLOOKUP(A17,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="9">
         <f>VLOOKUP(A17,Balance1!$B:$J,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="1">
         <f>VLOOKUP(A17,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17">
         <f>VLOOKUP(A17,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="26">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="26">
         <f t="shared" si="0"/>
         <v>9.9999999999999996E+87</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18">
         <v>5200</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="10">
         <f>VLOOKUP(A18,Balance1!$B:$J,2,FALSE)</f>
         <v>0.92969999999999997</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="10">
         <f>VLOOKUP(A18,Balance1!$B:$J,3,FALSE)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="10">
         <f>VLOOKUP(A18,Balance1!$B:$J,4,FALSE)</f>
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="10">
         <f>VLOOKUP(A18,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="10">
         <f>VLOOKUP(A18,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="9">
         <f>VLOOKUP(A18,Balance1!$B:$J,7,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="1">
         <f>VLOOKUP(A18,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18">
         <f>VLOOKUP(A18,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="26">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="26">
         <f t="shared" si="0"/>
         <v>9.9999999999999999E+88</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19">
         <v>5400</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="10">
         <f>VLOOKUP(A19,Balance1!$B:$J,2,FALSE)</f>
         <v>0.91964999999999997</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="10">
         <f>VLOOKUP(A19,Balance1!$B:$J,3,FALSE)</f>
         <v>0.08</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="10">
         <f>VLOOKUP(A19,Balance1!$B:$J,4,FALSE)</f>
         <v>3.5E-4</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="10">
         <f>VLOOKUP(A19,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="10">
         <f>VLOOKUP(A19,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="9">
         <f>VLOOKUP(A19,Balance1!$B:$J,7,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="1">
         <f>VLOOKUP(A19,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19">
         <f>VLOOKUP(A19,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="26">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="26">
         <f t="shared" si="0"/>
         <v>9.9999999999999997E+89</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20">
         <v>5600</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="10">
         <f>VLOOKUP(A20,Balance1!$B:$J,2,FALSE)</f>
         <v>0.90959999999999996</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="10">
         <f>VLOOKUP(A20,Balance1!$B:$J,3,FALSE)</f>
         <v>0.09</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="10">
         <f>VLOOKUP(A20,Balance1!$B:$J,4,FALSE)</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="10">
         <f>VLOOKUP(A20,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="10">
         <f>VLOOKUP(A20,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="9">
         <f>VLOOKUP(A20,Balance1!$B:$J,7,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="1">
         <f>VLOOKUP(A20,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20">
         <f>VLOOKUP(A20,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="26">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="26">
         <f t="shared" si="0"/>
         <v>9.999999999999999E+90</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21">
         <v>5800</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="10">
         <f>VLOOKUP(A21,Balance1!$B:$J,2,FALSE)</f>
         <v>0.89949999999999997</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="10">
         <f>VLOOKUP(A21,Balance1!$B:$J,3,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="10">
         <f>VLOOKUP(A21,Balance1!$B:$J,4,FALSE)</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="10">
         <f>VLOOKUP(A21,Balance1!$B:$J,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="10">
         <f>VLOOKUP(A21,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="9">
         <f>VLOOKUP(A21,Balance1!$B:$J,7,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="1">
         <f>VLOOKUP(A21,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21">
         <f>VLOOKUP(A21,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="26">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="26">
         <f t="shared" si="0"/>
         <v>9.999999999999999E+91</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22">
         <v>6000</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="10">
         <f>VLOOKUP(A22,Balance1!$B:$J,2,FALSE)</f>
         <v>0.86944500000000002</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="10">
         <f>VLOOKUP(A22,Balance1!$B:$J,3,FALSE)</f>
         <v>0.13</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="10">
         <f>VLOOKUP(A22,Balance1!$B:$J,4,FALSE)</f>
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="10">
         <f>VLOOKUP(A22,Balance1!$B:$J,5,FALSE)</f>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="10">
         <f>VLOOKUP(A22,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="9">
         <f>VLOOKUP(A22,Balance1!$B:$J,7,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="1">
         <f>VLOOKUP(A22,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22">
         <f>VLOOKUP(A22,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="26">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="26">
         <f t="shared" si="0"/>
         <v>9.9999999999999993E+92</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23">
         <v>6200</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="10">
         <f>VLOOKUP(A23,Balance1!$B:$J,2,FALSE)</f>
         <v>0.83938999999999997</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="10">
         <f>VLOOKUP(A23,Balance1!$B:$J,3,FALSE)</f>
         <v>0.16</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="10">
         <f>VLOOKUP(A23,Balance1!$B:$J,4,FALSE)</f>
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="10">
         <f>VLOOKUP(A23,Balance1!$B:$J,5,FALSE)</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="10">
         <f>VLOOKUP(A23,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="9">
         <f>VLOOKUP(A23,Balance1!$B:$J,7,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="1">
         <f>VLOOKUP(A23,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23">
         <f>VLOOKUP(A23,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="26">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="26">
         <f t="shared" si="0"/>
         <v>1E+94</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24">
         <v>6400</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="10">
         <f>VLOOKUP(A24,Balance1!$B:$J,2,FALSE)</f>
         <v>0.80932999999999999</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="10">
         <f>VLOOKUP(A24,Balance1!$B:$J,3,FALSE)</f>
         <v>0.19</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="10">
         <f>VLOOKUP(A24,Balance1!$B:$J,4,FALSE)</f>
         <v>6.4999999999999997E-4</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="10">
         <f>VLOOKUP(A24,Balance1!$B:$J,5,FALSE)</f>
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="10">
         <f>VLOOKUP(A24,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="9">
         <f>VLOOKUP(A24,Balance1!$B:$J,7,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="1">
         <f>VLOOKUP(A24,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24">
         <f>VLOOKUP(A24,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="26">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="1">
         <v>3</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="26">
         <f t="shared" si="0"/>
         <v>1E+95</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25">
         <v>6600</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="10">
         <f>VLOOKUP(A25,Balance1!$B:$J,2,FALSE)</f>
         <v>0.77927000000000002</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="10">
         <f>VLOOKUP(A25,Balance1!$B:$J,3,FALSE)</f>
         <v>0.22</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="10">
         <f>VLOOKUP(A25,Balance1!$B:$J,4,FALSE)</f>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="10">
         <f>VLOOKUP(A25,Balance1!$B:$J,5,FALSE)</f>
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="10">
         <f>VLOOKUP(A25,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="9">
         <f>VLOOKUP(A25,Balance1!$B:$J,7,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="1">
         <f>VLOOKUP(A25,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25">
         <f>VLOOKUP(A25,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="26">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="1">
         <v>3</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="26">
         <f t="shared" si="0"/>
         <v>1E+96</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26">
         <v>6800</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="10">
         <f>VLOOKUP(A26,Balance1!$B:$J,2,FALSE)</f>
         <v>0.74921000000000004</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="10">
         <f>VLOOKUP(A26,Balance1!$B:$J,3,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="10">
         <f>VLOOKUP(A26,Balance1!$B:$J,4,FALSE)</f>
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="10">
         <f>VLOOKUP(A26,Balance1!$B:$J,5,FALSE)</f>
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="10">
         <f>VLOOKUP(A26,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="9">
         <f>VLOOKUP(A26,Balance1!$B:$J,7,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="1">
         <f>VLOOKUP(A26,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26">
         <f>VLOOKUP(A26,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="26">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="1">
         <v>3</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E+97</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27">
         <v>7000</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="10">
         <f>VLOOKUP(A27,Balance1!$B:$J,2,FALSE)</f>
         <v>0.71914999999999996</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="10">
         <f>VLOOKUP(A27,Balance1!$B:$J,3,FALSE)</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="10">
         <f>VLOOKUP(A27,Balance1!$B:$J,4,FALSE)</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="10">
         <f>VLOOKUP(A27,Balance1!$B:$J,5,FALSE)</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="10">
         <f>VLOOKUP(A27,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="9">
         <f>VLOOKUP(A27,Balance1!$B:$J,7,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="1">
         <f>VLOOKUP(A27,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27">
         <f>VLOOKUP(A27,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="26">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="1">
         <v>3</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E+98</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28">
         <v>7200</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="10">
         <f>VLOOKUP(A28,Balance1!$B:$J,2,FALSE)</f>
         <v>0.68908999999999998</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="10">
         <f>VLOOKUP(A28,Balance1!$B:$J,3,FALSE)</f>
         <v>0.31</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="10">
         <f>VLOOKUP(A28,Balance1!$B:$J,4,FALSE)</f>
         <v>8.4999999999999898E-4</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="10">
         <f>VLOOKUP(A28,Balance1!$B:$J,5,FALSE)</f>
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="10">
         <f>VLOOKUP(A28,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="9">
         <f>VLOOKUP(A28,Balance1!$B:$J,7,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="1">
         <f>VLOOKUP(A28,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28">
         <f>VLOOKUP(A28,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="26">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="1">
         <v>3</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E+99</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29">
         <v>7400</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="10">
         <f>VLOOKUP(A29,Balance1!$B:$J,2,FALSE)</f>
         <v>0.65903</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="10">
         <f>VLOOKUP(A29,Balance1!$B:$J,3,FALSE)</f>
         <v>0.34</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="10">
         <f>VLOOKUP(A29,Balance1!$B:$J,4,FALSE)</f>
         <v>8.99999999999999E-4</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="10">
         <f>VLOOKUP(A29,Balance1!$B:$J,5,FALSE)</f>
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="10">
         <f>VLOOKUP(A29,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="9">
         <f>VLOOKUP(A29,Balance1!$B:$J,7,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="1">
         <f>VLOOKUP(A29,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29">
         <f>VLOOKUP(A29,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="26">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="1">
         <v>3</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E+100</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30">
         <v>7600</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="10">
         <f>VLOOKUP(A30,Balance1!$B:$J,2,FALSE)</f>
         <v>0.62897000000000003</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="10">
         <f>VLOOKUP(A30,Balance1!$B:$J,3,FALSE)</f>
         <v>0.37</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="10">
         <f>VLOOKUP(A30,Balance1!$B:$J,4,FALSE)</f>
         <v>9.4999999999999902E-4</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="10">
         <f>VLOOKUP(A30,Balance1!$B:$J,5,FALSE)</f>
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="10">
         <f>VLOOKUP(A30,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="9">
         <f>VLOOKUP(A30,Balance1!$B:$J,7,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="1">
         <f>VLOOKUP(A30,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30">
         <f>VLOOKUP(A30,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="26">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="1">
         <v>3</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000003E+101</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31">
         <v>7800</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="10">
         <f>VLOOKUP(A31,Balance1!$B:$J,2,FALSE)</f>
         <v>0.58989999999999998</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="10">
         <f>VLOOKUP(A31,Balance1!$B:$J,3,FALSE)</f>
         <v>0.4</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="10">
         <f>VLOOKUP(A31,Balance1!$B:$J,4,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="10">
         <f>VLOOKUP(A31,Balance1!$B:$J,5,FALSE)</f>
         <v>1E-4</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J31" s="10">
         <f>VLOOKUP(A31,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="9">
         <f>VLOOKUP(A31,Balance1!$B:$J,7,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="1">
         <f>VLOOKUP(A31,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31">
         <f>VLOOKUP(A31,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="26">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="1">
         <v>3</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000004E+102</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32">
         <v>8000</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F32" s="10">
         <f>VLOOKUP(A32,Balance1!$B:$J,2,FALSE)</f>
         <v>0.57686999999999999</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="10">
         <f>VLOOKUP(A32,Balance1!$B:$J,3,FALSE)</f>
         <v>0.41</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="10">
         <f>VLOOKUP(A32,Balance1!$B:$J,4,FALSE)</f>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="10">
         <f>VLOOKUP(A32,Balance1!$B:$J,5,FALSE)</f>
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="J32" s="33">
+      <c r="J32" s="10">
         <f>VLOOKUP(A32,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="9">
         <f>VLOOKUP(A32,Balance1!$B:$J,7,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L32" s="31">
+      <c r="L32" s="1">
         <f>VLOOKUP(A32,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32">
         <f>VLOOKUP(A32,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="26">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000004E+103</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33">
         <v>8200</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="10">
         <f>VLOOKUP(A33,Balance1!$B:$J,2,FALSE)</f>
         <v>0.56384000000000001</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="10">
         <f>VLOOKUP(A33,Balance1!$B:$J,3,FALSE)</f>
         <v>0.42</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="10">
         <f>VLOOKUP(A33,Balance1!$B:$J,4,FALSE)</f>
         <v>1.6E-2</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="10">
         <f>VLOOKUP(A33,Balance1!$B:$J,5,FALSE)</f>
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="J33" s="33">
+      <c r="J33" s="10">
         <f>VLOOKUP(A33,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="9">
         <f>VLOOKUP(A33,Balance1!$B:$J,7,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L33" s="31">
+      <c r="L33" s="1">
         <f>VLOOKUP(A33,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33">
         <f>VLOOKUP(A33,Balance1!$B:$J,9,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="26">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="1">
         <v>3</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000003E+104</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34">
         <v>8400</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="10">
         <f>VLOOKUP(A34,Balance1!$B:$J,2,FALSE)</f>
         <v>0.55081000000000002</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="10">
         <f>VLOOKUP(A34,Balance1!$B:$J,3,FALSE)</f>
         <v>0.43</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="10">
         <f>VLOOKUP(A34,Balance1!$B:$J,4,FALSE)</f>
         <v>1.9E-2</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="10">
         <f>VLOOKUP(A34,Balance1!$B:$J,5,FALSE)</f>
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="10">
         <f>VLOOKUP(A34,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="9">
         <f>VLOOKUP(A34,Balance1!$B:$J,7,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L34" s="31">
+      <c r="L34" s="1">
         <f>VLOOKUP(A34,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34">
         <f>VLOOKUP(A34,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="26">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="1">
         <v>3</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000003E+105</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35">
         <v>8600</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="10">
         <f>VLOOKUP(A35,Balance1!$B:$J,2,FALSE)</f>
         <v>0.53777999999999992</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="10">
         <f>VLOOKUP(A35,Balance1!$B:$J,3,FALSE)</f>
         <v>0.44</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="10">
         <f>VLOOKUP(A35,Balance1!$B:$J,4,FALSE)</f>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="10">
         <f>VLOOKUP(A35,Balance1!$B:$J,5,FALSE)</f>
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="J35" s="33">
+      <c r="J35" s="10">
         <f>VLOOKUP(A35,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="9">
         <f>VLOOKUP(A35,Balance1!$B:$J,7,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L35" s="31">
+      <c r="L35" s="1">
         <f>VLOOKUP(A35,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M35" s="26">
+      <c r="M35">
         <f>VLOOKUP(A35,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="26">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="1">
         <v>3</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000003E+106</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36">
         <v>8800</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="10">
         <f>VLOOKUP(A36,Balance1!$B:$J,2,FALSE)</f>
         <v>0.52475000000000005</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="10">
         <f>VLOOKUP(A36,Balance1!$B:$J,3,FALSE)</f>
         <v>0.45</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="10">
         <f>VLOOKUP(A36,Balance1!$B:$J,4,FALSE)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="10">
         <f>VLOOKUP(A36,Balance1!$B:$J,5,FALSE)</f>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="10">
         <f>VLOOKUP(A36,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36" s="9">
         <f>VLOOKUP(A36,Balance1!$B:$J,7,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="1">
         <f>VLOOKUP(A36,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36">
         <f>VLOOKUP(A36,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="26">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="1">
         <v>3</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000003E+107</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37">
         <v>9000</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="10">
         <f>VLOOKUP(A37,Balance1!$B:$J,2,FALSE)</f>
         <v>0.50970000000000004</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="10">
         <f>VLOOKUP(A37,Balance1!$B:$J,3,FALSE)</f>
         <v>0.46</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="10">
         <f>VLOOKUP(A37,Balance1!$B:$J,4,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="10">
         <f>VLOOKUP(A37,Balance1!$B:$J,5,FALSE)</f>
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="J37" s="33">
+      <c r="J37" s="10">
         <f>VLOOKUP(A37,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="9">
         <f>VLOOKUP(A37,Balance1!$B:$J,7,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L37" s="31">
+      <c r="L37" s="1">
         <f>VLOOKUP(A37,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37">
         <f>VLOOKUP(A37,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="26">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="1">
         <v>3</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000003E+108</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38">
         <v>9200</v>
       </c>
-      <c r="F38" s="33">
+      <c r="F38" s="10">
         <f>VLOOKUP(A38,Balance1!$B:$J,2,FALSE)</f>
         <v>0.49465000000000003</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="10">
         <f>VLOOKUP(A38,Balance1!$B:$J,3,FALSE)</f>
         <v>0.47</v>
       </c>
-      <c r="H38" s="33">
+      <c r="H38" s="10">
         <f>VLOOKUP(A38,Balance1!$B:$J,4,FALSE)</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="10">
         <f>VLOOKUP(A38,Balance1!$B:$J,5,FALSE)</f>
         <v>3.5E-4</v>
       </c>
-      <c r="J38" s="33">
+      <c r="J38" s="10">
         <f>VLOOKUP(A38,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="9">
         <f>VLOOKUP(A38,Balance1!$B:$J,7,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L38" s="31">
+      <c r="L38" s="1">
         <f>VLOOKUP(A38,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M38" s="26">
+      <c r="M38">
         <f>VLOOKUP(A38,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="26">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="1">
         <v>3</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E+109</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39">
         <v>9400</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="10">
         <f>VLOOKUP(A39,Balance1!$B:$J,2,FALSE)</f>
         <v>0.47960000000000003</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="10">
         <f>VLOOKUP(A39,Balance1!$B:$J,3,FALSE)</f>
         <v>0.48</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="10">
         <f>VLOOKUP(A39,Balance1!$B:$J,4,FALSE)</f>
         <v>0.04</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="10">
         <f>VLOOKUP(A39,Balance1!$B:$J,5,FALSE)</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="10">
         <f>VLOOKUP(A39,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K39" s="9">
         <f>VLOOKUP(A39,Balance1!$B:$J,7,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L39" s="31">
+      <c r="L39" s="1">
         <f>VLOOKUP(A39,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M39" s="26">
+      <c r="M39">
         <f>VLOOKUP(A39,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="26">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="1">
         <v>3</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E+110</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40">
         <v>9600</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="10">
         <f>VLOOKUP(A40,Balance1!$B:$J,2,FALSE)</f>
         <v>0.46455000000000002</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="10">
         <f>VLOOKUP(A40,Balance1!$B:$J,3,FALSE)</f>
         <v>0.49</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="10">
         <f>VLOOKUP(A40,Balance1!$B:$J,4,FALSE)</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="10">
         <f>VLOOKUP(A40,Balance1!$B:$J,5,FALSE)</f>
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="10">
         <f>VLOOKUP(A40,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="34">
+      <c r="K40" s="9">
         <f>VLOOKUP(A40,Balance1!$B:$J,7,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L40" s="31">
+      <c r="L40" s="1">
         <f>VLOOKUP(A40,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M40" s="26">
+      <c r="M40">
         <f>VLOOKUP(A40,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="26">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="1">
         <v>3</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E+111</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41">
         <v>9800</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="10">
         <f>VLOOKUP(A41,Balance1!$B:$J,2,FALSE)</f>
         <v>0.44950000000000001</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="10">
         <f>VLOOKUP(A41,Balance1!$B:$J,3,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="10">
         <f>VLOOKUP(A41,Balance1!$B:$J,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="10">
         <f>VLOOKUP(A41,Balance1!$B:$J,5,FALSE)</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J41" s="33">
+      <c r="J41" s="10">
         <f>VLOOKUP(A41,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="34">
+      <c r="K41" s="9">
         <f>VLOOKUP(A41,Balance1!$B:$J,7,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L41" s="31">
+      <c r="L41" s="1">
         <f>VLOOKUP(A41,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M41" s="26">
+      <c r="M41">
         <f>VLOOKUP(A41,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="26">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="1">
         <v>4</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E+112</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42">
         <v>10000</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="10">
         <f>VLOOKUP(A42,Balance1!$B:$J,2,FALSE)</f>
         <v>0.42489999999999994</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="10">
         <f>VLOOKUP(A42,Balance1!$B:$J,3,FALSE)</f>
         <v>0.51</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="10">
         <f>VLOOKUP(A42,Balance1!$B:$J,4,FALSE)</f>
         <v>5.5E-2</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="10">
         <f>VLOOKUP(A42,Balance1!$B:$J,5,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="J42" s="33">
+      <c r="J42" s="10">
         <f>VLOOKUP(A42,Balance1!$B:$J,6,FALSE)</f>
         <v>1E-4</v>
       </c>
-      <c r="K42" s="34">
+      <c r="K42" s="9">
         <f>VLOOKUP(A42,Balance1!$B:$J,7,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="L42" s="31">
+      <c r="L42" s="1">
         <f>VLOOKUP(A42,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M42" s="26">
+      <c r="M42">
         <f>VLOOKUP(A42,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="26">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="1">
         <v>4</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E+113</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43">
         <v>10200</v>
       </c>
-      <c r="F43" s="33">
+      <c r="F43" s="10">
         <f>VLOOKUP(A43,Balance1!$B:$J,2,FALSE)</f>
         <v>0.4093</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="10">
         <f>VLOOKUP(A43,Balance1!$B:$J,3,FALSE)</f>
         <v>0.52</v>
       </c>
-      <c r="H43" s="33">
+      <c r="H43" s="10">
         <f>VLOOKUP(A43,Balance1!$B:$J,4,FALSE)</f>
         <v>0.06</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="10">
         <f>VLOOKUP(A43,Balance1!$B:$J,5,FALSE)</f>
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="J43" s="33">
+      <c r="J43" s="10">
         <f>VLOOKUP(A43,Balance1!$B:$J,6,FALSE)</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="K43" s="34">
+      <c r="K43" s="9">
         <f>VLOOKUP(A43,Balance1!$B:$J,7,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="L43" s="31">
+      <c r="L43" s="1">
         <f>VLOOKUP(A43,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M43" s="26">
+      <c r="M43">
         <f>VLOOKUP(A43,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="26">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="1">
         <v>4</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="26">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E+114</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44">
         <v>10400</v>
       </c>
-      <c r="F44" s="33">
+      <c r="F44" s="10">
         <f>VLOOKUP(A44,Balance1!$B:$J,2,FALSE)</f>
         <v>0.39370000000000005</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="10">
         <f>VLOOKUP(A44,Balance1!$B:$J,3,FALSE)</f>
         <v>0.53</v>
       </c>
-      <c r="H44" s="33">
+      <c r="H44" s="10">
         <f>VLOOKUP(A44,Balance1!$B:$J,4,FALSE)</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="10">
         <f>VLOOKUP(A44,Balance1!$B:$J,5,FALSE)</f>
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="J44" s="33">
+      <c r="J44" s="10">
         <f>VLOOKUP(A44,Balance1!$B:$J,6,FALSE)</f>
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="K44" s="34">
+      <c r="K44" s="9">
         <f>VLOOKUP(A44,Balance1!$B:$J,7,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="L44" s="31">
+      <c r="L44" s="1">
         <f>VLOOKUP(A44,Balance1!$B:$J,8,FALSE)</f>
         <v>9028</v>
       </c>
-      <c r="M44" s="26">
+      <c r="M44">
         <f>VLOOKUP(A44,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
       </c>
     </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+115</v>
+      </c>
+      <c r="E45">
+        <v>10600</v>
+      </c>
+      <c r="F45" s="10">
+        <f>VLOOKUP(A45,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.37809999999999999</v>
+      </c>
+      <c r="G45" s="10">
+        <f>VLOOKUP(A45,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.54</v>
+      </c>
+      <c r="H45" s="10">
+        <f>VLOOKUP(A45,Balance1!$B:$J,4,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I45" s="10">
+        <f>VLOOKUP(A45,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.1500000000000002E-2</v>
+      </c>
+      <c r="J45" s="10">
+        <f>VLOOKUP(A45,Balance1!$B:$J,6,FALSE)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K45" s="9">
+        <f>VLOOKUP(A45,Balance1!$B:$J,7,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="L45" s="1">
+        <f>VLOOKUP(A45,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M45">
+        <f>VLOOKUP(A45,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+      <c r="D46" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+116</v>
+      </c>
+      <c r="E46">
+        <v>10800</v>
+      </c>
+      <c r="F46" s="10">
+        <f>VLOOKUP(A46,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.36250000000000004</v>
+      </c>
+      <c r="G46" s="10">
+        <f>VLOOKUP(A46,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H46" s="10">
+        <f>VLOOKUP(A46,Balance1!$B:$J,4,FALSE)</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="I46" s="10">
+        <f>VLOOKUP(A46,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.2000000000000002E-2</v>
+      </c>
+      <c r="J46" s="10">
+        <f>VLOOKUP(A46,Balance1!$B:$J,6,FALSE)</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K46" s="9">
+        <f>VLOOKUP(A46,Balance1!$B:$J,7,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="L46" s="1">
+        <f>VLOOKUP(A46,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M46">
+        <f>VLOOKUP(A46,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+117</v>
+      </c>
+      <c r="E47">
+        <v>11000</v>
+      </c>
+      <c r="F47" s="10">
+        <f>VLOOKUP(A47,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.34689999999999988</v>
+      </c>
+      <c r="G47" s="10">
+        <f>VLOOKUP(A47,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H47" s="10">
+        <f>VLOOKUP(A47,Balance1!$B:$J,4,FALSE)</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="I47" s="10">
+        <f>VLOOKUP(A47,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.2500000000000002E-2</v>
+      </c>
+      <c r="J47" s="10">
+        <f>VLOOKUP(A47,Balance1!$B:$J,6,FALSE)</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="K47" s="9">
+        <f>VLOOKUP(A47,Balance1!$B:$J,7,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="L47" s="1">
+        <f>VLOOKUP(A47,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M47">
+        <f>VLOOKUP(A47,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+118</v>
+      </c>
+      <c r="E48">
+        <v>11200</v>
+      </c>
+      <c r="F48" s="10">
+        <f>VLOOKUP(A48,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.33129999999999993</v>
+      </c>
+      <c r="G48" s="10">
+        <f>VLOOKUP(A48,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="H48" s="10">
+        <f>VLOOKUP(A48,Balance1!$B:$J,4,FALSE)</f>
+        <v>8.500000000000002E-2</v>
+      </c>
+      <c r="I48" s="10">
+        <f>VLOOKUP(A48,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.3000000000000003E-2</v>
+      </c>
+      <c r="J48" s="10">
+        <f>VLOOKUP(A48,Balance1!$B:$J,6,FALSE)</f>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="K48" s="9">
+        <f>VLOOKUP(A48,Balance1!$B:$J,7,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="L48" s="1">
+        <f>VLOOKUP(A48,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M48">
+        <f>VLOOKUP(A48,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
+      <c r="D49" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+119</v>
+      </c>
+      <c r="E49">
+        <v>11400</v>
+      </c>
+      <c r="F49" s="10">
+        <f>VLOOKUP(A49,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.31569999999999987</v>
+      </c>
+      <c r="G49" s="10">
+        <f>VLOOKUP(A49,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="H49" s="10">
+        <f>VLOOKUP(A49,Balance1!$B:$J,4,FALSE)</f>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="I49" s="10">
+        <f>VLOOKUP(A49,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.3500000000000003E-2</v>
+      </c>
+      <c r="J49" s="10">
+        <f>VLOOKUP(A49,Balance1!$B:$J,6,FALSE)</f>
+        <v>8.0000000000000015E-4</v>
+      </c>
+      <c r="K49" s="9">
+        <f>VLOOKUP(A49,Balance1!$B:$J,7,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="L49" s="1">
+        <f>VLOOKUP(A49,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M49">
+        <f>VLOOKUP(A49,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+120</v>
+      </c>
+      <c r="E50">
+        <v>11600</v>
+      </c>
+      <c r="F50" s="10">
+        <f>VLOOKUP(A50,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.30009999999999992</v>
+      </c>
+      <c r="G50" s="10">
+        <f>VLOOKUP(A50,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="H50" s="10">
+        <f>VLOOKUP(A50,Balance1!$B:$J,4,FALSE)</f>
+        <v>9.5000000000000029E-2</v>
+      </c>
+      <c r="I50" s="10">
+        <f>VLOOKUP(A50,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.4000000000000004E-2</v>
+      </c>
+      <c r="J50" s="10">
+        <f>VLOOKUP(A50,Balance1!$B:$J,6,FALSE)</f>
+        <v>9.0000000000000019E-4</v>
+      </c>
+      <c r="K50" s="9">
+        <f>VLOOKUP(A50,Balance1!$B:$J,7,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="L50" s="1">
+        <f>VLOOKUP(A50,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M50">
+        <f>VLOOKUP(A50,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E44">
+  <conditionalFormatting sqref="D2:E50">
     <cfRule type="expression" dxfId="5" priority="3">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3351,8 +3500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
   <dimension ref="A2:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3389,7 +3538,7 @@
         <v>71</v>
       </c>
       <c r="M2">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -3500,7 +3649,7 @@
       </c>
       <c r="O5">
         <f>VLOOKUP($M$2,$B:$H,7,FALSE)*4</f>
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3771,23 +3920,23 @@
       </c>
       <c r="M12">
         <f>VLOOKUP($M$2,$B:$H,2,FALSE)*$M$5</f>
-        <v>8.2599999999999962</v>
+        <v>29.968400000000003</v>
       </c>
       <c r="N12">
         <f>VLOOKUP($M$2,$B:$H,2,FALSE)*$M$6</f>
-        <v>6.1949999999999967</v>
+        <v>22.476300000000002</v>
       </c>
       <c r="O12">
         <f>VLOOKUP($M$2,$B:$H,2,FALSE)*$M$7</f>
-        <v>4.1299999999999981</v>
+        <v>14.984200000000001</v>
       </c>
       <c r="P12">
         <f>VLOOKUP($M$2,$B:$H,2,FALSE)*$M$8</f>
-        <v>2.0649999999999991</v>
+        <v>7.4921000000000006</v>
       </c>
       <c r="Q12">
         <f>SUM(M12:P12)</f>
-        <v>20.649999999999988</v>
+        <v>74.920999999999992</v>
       </c>
       <c r="U12" t="s">
         <v>51</v>
@@ -3839,29 +3988,28 @@
       <c r="J13" s="14">
         <v>1</v>
       </c>
-      <c r="K13" s="26"/>
       <c r="L13" t="s">
         <v>52</v>
       </c>
       <c r="M13">
         <f>VLOOKUP($M$2,$B:$H,3,FALSE)*$M$5</f>
-        <v>26.000000000000007</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <f>VLOOKUP($M$2,$B:$H,3,FALSE)*$M$6</f>
-        <v>19.500000000000004</v>
+        <v>7.5</v>
       </c>
       <c r="O13">
         <f>VLOOKUP($M$2,$B:$H,3,FALSE)*$M$7</f>
-        <v>13.000000000000004</v>
+        <v>5</v>
       </c>
       <c r="P13">
         <f>VLOOKUP($M$2,$B:$H,3,FALSE)*$M$8</f>
-        <v>6.5000000000000018</v>
+        <v>2.5</v>
       </c>
       <c r="Q13">
         <f t="shared" ref="Q13:Q17" si="0">SUM(M13:P13)</f>
-        <v>65.000000000000014</v>
+        <v>25</v>
       </c>
       <c r="U13" t="s">
         <v>52</v>
@@ -3920,23 +4068,23 @@
       </c>
       <c r="M14">
         <f>VLOOKUP($M$2,$B:$H,4,FALSE)*$M$5</f>
-        <v>5.0000000000000018</v>
+        <v>0.03</v>
       </c>
       <c r="N14">
         <f>VLOOKUP($M$2,$B:$H,4,FALSE)*$M$6</f>
-        <v>3.7500000000000018</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="O14">
         <f>VLOOKUP($M$2,$B:$H,4,FALSE)*$M$7</f>
-        <v>2.5000000000000009</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P14">
         <f>VLOOKUP($M$2,$B:$H,4,FALSE)*$M$8</f>
-        <v>1.2500000000000004</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>12.500000000000004</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="U14" t="s">
         <v>53</v>
@@ -3995,23 +4143,23 @@
       </c>
       <c r="M15">
         <f>VLOOKUP($M$2,$B:$H,5,FALSE)*$M$5</f>
-        <v>0.68000000000000016</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="N15">
         <f>VLOOKUP($M$2,$B:$H,5,FALSE)*$M$6</f>
-        <v>0.51000000000000012</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="O15">
         <f>VLOOKUP($M$2,$B:$H,5,FALSE)*$M$7</f>
-        <v>0.34000000000000008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="P15">
         <f>VLOOKUP($M$2,$B:$H,5,FALSE)*$M$8</f>
-        <v>0.17000000000000004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>1.7000000000000006</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U15" t="s">
         <v>54</v>
@@ -4070,23 +4218,23 @@
       </c>
       <c r="M16">
         <f>VLOOKUP($M$2,$B:$H,6,FALSE)*$M$5</f>
-        <v>6.0000000000000019E-2</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <f>VLOOKUP($M$2,$B:$H,6,FALSE)*$M$6</f>
-        <v>4.5000000000000012E-2</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <f>VLOOKUP($M$2,$B:$H,6,FALSE)*$M$7</f>
-        <v>3.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <f>VLOOKUP($M$2,$B:$H,6,FALSE)*$M$8</f>
-        <v>1.5000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>0.15000000000000005</v>
+        <v>0</v>
       </c>
       <c r="U16" t="s">
         <v>55</v>
@@ -4216,7 +4364,7 @@
       </c>
       <c r="Q18">
         <f>SUM(Q12:Q17)</f>
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:26">
@@ -4385,50 +4533,50 @@
       </c>
       <c r="M22">
         <f>M12*$O$5/100</f>
-        <v>9.2511999999999954</v>
+        <v>20.378512000000001</v>
       </c>
       <c r="N22">
         <f t="shared" ref="N22:P22" si="8">N12*$O$5/100</f>
-        <v>6.938399999999997</v>
+        <v>15.283884</v>
       </c>
       <c r="O22">
         <f t="shared" si="8"/>
-        <v>4.6255999999999977</v>
+        <v>10.189256</v>
       </c>
       <c r="P22">
         <f t="shared" si="8"/>
-        <v>2.3127999999999989</v>
+        <v>5.0946280000000002</v>
       </c>
       <c r="Q22">
         <f>SUM(M22:P22)</f>
-        <v>23.127999999999989</v>
+        <v>50.946280000000002</v>
       </c>
       <c r="R22" s="22">
         <f>M22*V12+N22*W12+O22*X12+P22*Y12</f>
-        <v>60.132799999999975</v>
+        <v>132.460328</v>
       </c>
       <c r="S22">
         <f>R22/$R$28</f>
-        <v>9.8079960103066998E-4</v>
+        <v>0.1467586017766721</v>
       </c>
       <c r="U22" t="s">
         <v>51</v>
       </c>
       <c r="V22">
         <f>V12/$R$28</f>
-        <v>1.6310559312566027E-5</v>
+        <v>1.1079438198029535E-3</v>
       </c>
       <c r="W22">
         <f t="shared" ref="W22:Y22" si="9">W12/$R$28</f>
-        <v>3.2621118625132054E-5</v>
+        <v>2.215887639605907E-3</v>
       </c>
       <c r="X22">
         <f t="shared" si="9"/>
-        <v>6.5242237250264109E-5</v>
+        <v>4.431775279211814E-3</v>
       </c>
       <c r="Y22">
         <f t="shared" si="9"/>
-        <v>1.3048447450052822E-4</v>
+        <v>8.8635505584236281E-3</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="17.25" thickBot="1">
@@ -4460,56 +4608,55 @@
       <c r="J23" s="14">
         <v>1</v>
       </c>
-      <c r="K23" s="26"/>
       <c r="L23" t="s">
         <v>62</v>
       </c>
       <c r="M23">
         <f t="shared" ref="M23:P23" si="10">M13*$O$5/100</f>
-        <v>29.120000000000008</v>
+        <v>6.8</v>
       </c>
       <c r="N23">
         <f t="shared" si="10"/>
-        <v>21.840000000000003</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="O23">
         <f t="shared" si="10"/>
-        <v>14.560000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
         <f t="shared" si="10"/>
-        <v>7.280000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23:Q28" si="11">SUM(M23:P23)</f>
-        <v>72.800000000000011</v>
+        <f t="shared" ref="Q23:Q27" si="11">SUM(M23:P23)</f>
+        <v>17</v>
       </c>
       <c r="R23" s="22">
         <f>M23*V13+N23*W13+O23*X13+P23*Y13</f>
-        <v>3028.4800000000005</v>
+        <v>707.2</v>
       </c>
       <c r="S23">
         <f t="shared" ref="S23:S27" si="12">R23/$R$28</f>
-        <v>4.9396202666919971E-2</v>
+        <v>0.78353786936464875</v>
       </c>
       <c r="U23" t="s">
         <v>52</v>
       </c>
       <c r="V23">
         <f t="shared" ref="V23:Y23" si="13">V13/$R$28</f>
-        <v>2.6096894900105643E-4</v>
+        <v>1.7727101116847256E-2</v>
       </c>
       <c r="W23">
         <f t="shared" si="13"/>
-        <v>5.2193789800211287E-4</v>
+        <v>3.5454202233694512E-2</v>
       </c>
       <c r="X23">
         <f t="shared" si="13"/>
-        <v>1.0438757960042257E-3</v>
+        <v>7.0908404467389025E-2</v>
       </c>
       <c r="Y23">
         <f t="shared" si="13"/>
-        <v>2.0877515920084515E-3</v>
+        <v>0.14181680893477805</v>
       </c>
     </row>
     <row r="24" spans="2:26">
@@ -4546,50 +4693,50 @@
       </c>
       <c r="M24">
         <f t="shared" ref="M24:P24" si="14">M14*$O$5/100</f>
-        <v>5.6000000000000023</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="N24">
         <f t="shared" si="14"/>
-        <v>4.200000000000002</v>
+        <v>1.5300000000000001E-2</v>
       </c>
       <c r="O24">
         <f t="shared" si="14"/>
-        <v>2.8000000000000012</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="P24">
         <f t="shared" si="14"/>
-        <v>1.4000000000000006</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="Q24">
         <f t="shared" si="11"/>
-        <v>14.000000000000005</v>
+        <v>5.1000000000000004E-2</v>
       </c>
       <c r="R24" s="22">
         <f t="shared" ref="R24:R27" si="15">M24*V14+N24*W14+O24*X14+P24*Y14</f>
-        <v>9318.4000000000033</v>
+        <v>33.945599999999999</v>
       </c>
       <c r="S24">
         <f t="shared" si="12"/>
-        <v>0.15198831589821532</v>
+        <v>3.7609817729503135E-2</v>
       </c>
       <c r="U24" t="s">
         <v>53</v>
       </c>
       <c r="V24">
         <f t="shared" ref="V24:Y24" si="16">V14/$R$28</f>
-        <v>4.175503184016903E-3</v>
+        <v>0.2836336178695561</v>
       </c>
       <c r="W24">
         <f t="shared" si="16"/>
-        <v>8.3510063680338059E-3</v>
+        <v>0.5672672357391122</v>
       </c>
       <c r="X24">
         <f t="shared" si="16"/>
-        <v>1.6702012736067612E-2</v>
+        <v>1.1345344714782244</v>
       </c>
       <c r="Y24">
         <f t="shared" si="16"/>
-        <v>3.3404025472135224E-2</v>
+        <v>2.2690689429564488</v>
       </c>
     </row>
     <row r="25" spans="2:26">
@@ -4626,50 +4773,50 @@
       </c>
       <c r="M25">
         <f t="shared" ref="M25:P25" si="17">M15*$O$5/100</f>
-        <v>0.76160000000000028</v>
+        <v>1.088E-3</v>
       </c>
       <c r="N25">
         <f t="shared" si="17"/>
-        <v>0.57120000000000015</v>
+        <v>8.160000000000001E-4</v>
       </c>
       <c r="O25">
         <f t="shared" si="17"/>
-        <v>0.38080000000000014</v>
+        <v>5.44E-4</v>
       </c>
       <c r="P25">
         <f t="shared" si="17"/>
-        <v>0.19040000000000007</v>
+        <v>2.72E-4</v>
       </c>
       <c r="Q25">
         <f t="shared" si="11"/>
-        <v>1.9040000000000006</v>
+        <v>2.7200000000000002E-3</v>
       </c>
       <c r="R25" s="22">
         <f t="shared" si="15"/>
-        <v>20276.838400000008</v>
+        <v>28.966912000000001</v>
       </c>
       <c r="S25">
         <f t="shared" si="12"/>
-        <v>0.33072657539451655</v>
+        <v>3.2093711129176014E-2</v>
       </c>
       <c r="U25" t="s">
         <v>54</v>
       </c>
       <c r="V25">
         <f t="shared" ref="V25:Y25" si="18">V15/$R$28</f>
-        <v>6.6808050944270447E-2</v>
+        <v>4.5381378859128976</v>
       </c>
       <c r="W25">
         <f t="shared" si="18"/>
-        <v>0.13361610188854089</v>
+        <v>9.0762757718257951</v>
       </c>
       <c r="X25">
         <f t="shared" si="18"/>
-        <v>0.26723220377708179</v>
+        <v>18.15255154365159</v>
       </c>
       <c r="Y25">
         <f t="shared" si="18"/>
-        <v>0.53446440755416358</v>
+        <v>36.305103087303181</v>
       </c>
     </row>
     <row r="26" spans="2:26">
@@ -4706,50 +4853,50 @@
       </c>
       <c r="M26">
         <f t="shared" ref="M26:P26" si="19">M16*$O$5/100</f>
-        <v>6.7200000000000024E-2</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <f t="shared" si="19"/>
-        <v>5.0400000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <f t="shared" si="19"/>
-        <v>3.3600000000000012E-2</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <f t="shared" si="19"/>
-        <v>1.6800000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <f t="shared" si="11"/>
-        <v>0.16800000000000007</v>
+        <v>0</v>
       </c>
       <c r="R26" s="22">
         <f t="shared" si="15"/>
-        <v>28626.124800000012</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <f t="shared" si="12"/>
-        <v>0.46690810643931752</v>
+        <v>0</v>
       </c>
       <c r="U26" t="s">
         <v>55</v>
       </c>
       <c r="V26">
         <f t="shared" ref="V26:Y27" si="20">V16/$R$28</f>
-        <v>1.0689288151083272</v>
+        <v>72.610206174606361</v>
       </c>
       <c r="W26">
         <f t="shared" si="20"/>
-        <v>2.1378576302166543</v>
+        <v>145.22041234921272</v>
       </c>
       <c r="X26">
         <f t="shared" si="20"/>
-        <v>4.2757152604333086</v>
+        <v>290.44082469842544</v>
       </c>
       <c r="Y26">
         <f t="shared" si="20"/>
-        <v>8.5514305208666173</v>
+        <v>580.88164939685089</v>
       </c>
     </row>
     <row r="27" spans="2:26">
@@ -4817,19 +4964,19 @@
       </c>
       <c r="V27">
         <f t="shared" si="20"/>
-        <v>17.102861041733235</v>
+        <v>1161.7632987937018</v>
       </c>
       <c r="W27">
         <f t="shared" si="20"/>
-        <v>34.205722083466469</v>
+        <v>2323.5265975874036</v>
       </c>
       <c r="X27">
         <f t="shared" si="20"/>
-        <v>68.411444166932938</v>
+        <v>4647.0531951748071</v>
       </c>
       <c r="Y27">
         <f t="shared" si="20"/>
-        <v>136.82288833386588</v>
+        <v>9294.1063903496142</v>
       </c>
     </row>
     <row r="28" spans="2:26">
@@ -4866,11 +5013,11 @@
       </c>
       <c r="Q28">
         <f>SUM(Q22:Q27)</f>
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="R28" s="22">
         <f>SUM(R22:R27)</f>
-        <v>61309.976000000024</v>
+        <v>902.57284000000004</v>
       </c>
     </row>
     <row r="29" spans="2:26">
@@ -4902,7 +5049,7 @@
       <c r="J29">
         <v>1</v>
       </c>
-      <c r="P29" s="27" t="s">
+      <c r="P29" s="24" t="s">
         <v>76</v>
       </c>
       <c r="R29" s="22"/>
@@ -5026,7 +5173,6 @@
       <c r="J33" s="14">
         <v>1</v>
       </c>
-      <c r="K33" s="26"/>
     </row>
     <row r="34" spans="1:25">
       <c r="B34">
@@ -5348,7 +5494,6 @@
       <c r="J43" s="14">
         <v>2</v>
       </c>
-      <c r="K43" s="26"/>
       <c r="L43" s="5" t="s">
         <v>9</v>
       </c>
@@ -5356,11 +5501,11 @@
         <v>4</v>
       </c>
       <c r="N43" s="6">
-        <f>POWER(10,M43)</f>
+        <f t="shared" ref="N43:N76" si="22">POWER(10,M43)</f>
         <v>10000</v>
       </c>
       <c r="O43" s="6" t="str">
-        <f>RIGHT(N43,M43)</f>
+        <f t="shared" ref="O43:O76" si="23">RIGHT(N43,M43)</f>
         <v>0000</v>
       </c>
       <c r="R43" s="22"/>
@@ -5395,13 +5540,12 @@
         <f>H36+4</f>
         <v>24</v>
       </c>
-      <c r="I44" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J44" s="25">
+      <c r="I44" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J44">
         <v>2</v>
       </c>
-      <c r="K44" s="25"/>
       <c r="L44" s="5" t="s">
         <v>11</v>
       </c>
@@ -5409,33 +5553,33 @@
         <v>8</v>
       </c>
       <c r="N44" s="6">
-        <f>POWER(10,M44)</f>
+        <f t="shared" si="22"/>
         <v>100000000</v>
       </c>
       <c r="O44" s="6" t="str">
-        <f>RIGHT(N44,M44)</f>
+        <f t="shared" si="23"/>
         <v>00000000</v>
       </c>
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:25">
       <c r="A45">
-        <f t="shared" ref="A45:A103" si="22">A44*10</f>
+        <f t="shared" ref="A45:A103" si="24">A44*10</f>
         <v>1.0000000000000002E+113</v>
       </c>
       <c r="B45">
         <v>41</v>
       </c>
       <c r="C45" s="23">
-        <f t="shared" ref="C45:C72" si="23">100%-(D45+E45+F45+G45)</f>
+        <f t="shared" ref="C45:C72" si="25">100%-(D45+E45+F45+G45)</f>
         <v>0.4093</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" ref="D45:D72" si="24">D44+0.01</f>
+        <f t="shared" ref="D45:D72" si="26">D44+0.01</f>
         <v>0.52</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" ref="E45:E103" si="25">E44+0.005</f>
+        <f t="shared" ref="E45:E103" si="27">E44+0.005</f>
         <v>0.06</v>
       </c>
       <c r="F45" s="7">
@@ -5447,16 +5591,15 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" ref="H45:H103" si="26">H37+4</f>
+        <f t="shared" ref="H45:H67" si="28">H37+4</f>
         <v>24</v>
       </c>
-      <c r="I45" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J45" s="25">
+      <c r="I45" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J45">
         <v>2</v>
       </c>
-      <c r="K45" s="25"/>
       <c r="L45" s="5" t="s">
         <v>12</v>
       </c>
@@ -5464,54 +5607,53 @@
         <v>12</v>
       </c>
       <c r="N45" s="6">
-        <f>POWER(10,M45)</f>
+        <f t="shared" si="22"/>
         <v>1000000000000</v>
       </c>
       <c r="O45" s="6" t="str">
-        <f>RIGHT(N45,M45)</f>
+        <f t="shared" si="23"/>
         <v>000000000000</v>
       </c>
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:25">
       <c r="A46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+114</v>
       </c>
       <c r="B46">
         <v>42</v>
       </c>
       <c r="C46" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39370000000000005</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.53</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" ref="F46:F103" si="27">F45+0.0005</f>
+        <f t="shared" ref="F46:F103" si="29">F45+0.0005</f>
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" ref="G46:G103" si="28">G45+0.0001</f>
+        <f t="shared" ref="G46:G103" si="30">G45+0.0001</f>
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
-      <c r="I46" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J46" s="25">
+      <c r="I46" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J46">
         <v>2</v>
       </c>
-      <c r="K46" s="25"/>
       <c r="L46" s="5" t="s">
         <v>13</v>
       </c>
@@ -5519,54 +5661,53 @@
         <v>16</v>
       </c>
       <c r="N46" s="6">
-        <f>POWER(10,M46)</f>
+        <f t="shared" si="22"/>
         <v>1E+16</v>
       </c>
       <c r="O46" s="6" t="str">
-        <f>RIGHT(N46,M46)</f>
+        <f t="shared" si="23"/>
         <v>0000000000000000</v>
       </c>
       <c r="R46" s="22"/>
     </row>
     <row r="47" spans="1:25">
       <c r="A47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+115</v>
       </c>
       <c r="B47">
         <v>43</v>
       </c>
       <c r="C47" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.37809999999999999</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.54</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.1500000000000002E-2</v>
       </c>
       <c r="G47" s="7">
+        <f t="shared" si="30"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H47" s="9">
         <f t="shared" si="28"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="H47" s="9">
-        <f t="shared" si="26"/>
         <v>24</v>
       </c>
-      <c r="I47" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J47" s="25">
+      <c r="I47" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J47">
         <v>2</v>
       </c>
-      <c r="K47" s="25"/>
       <c r="L47" s="5" t="s">
         <v>14</v>
       </c>
@@ -5574,54 +5715,53 @@
         <v>20</v>
       </c>
       <c r="N47" s="6">
-        <f>POWER(10,M47)</f>
+        <f t="shared" si="22"/>
         <v>1E+20</v>
       </c>
       <c r="O47" s="6" t="str">
-        <f>RIGHT(N47,M47)</f>
+        <f t="shared" si="23"/>
         <v>1E+20</v>
       </c>
       <c r="R47" s="22"/>
     </row>
     <row r="48" spans="1:25">
       <c r="A48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+116</v>
       </c>
       <c r="B48">
         <v>44</v>
       </c>
       <c r="C48" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.36250000000000004</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.2000000000000002E-2</v>
       </c>
       <c r="G48" s="7">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H48" s="9">
         <f t="shared" si="28"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H48" s="9">
-        <f t="shared" si="26"/>
         <v>24</v>
       </c>
-      <c r="I48" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J48" s="25">
+      <c r="I48" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J48">
         <v>2</v>
       </c>
-      <c r="K48" s="25"/>
       <c r="L48" s="5" t="s">
         <v>15</v>
       </c>
@@ -5629,11 +5769,11 @@
         <v>24</v>
       </c>
       <c r="N48" s="6">
-        <f>POWER(10,M48)</f>
+        <f t="shared" si="22"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="O48" s="6" t="str">
-        <f>RIGHT(N48,M48)</f>
+        <f t="shared" si="23"/>
         <v>1E+24</v>
       </c>
       <c r="R48" s="22"/>
@@ -5644,43 +5784,42 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+117</v>
       </c>
       <c r="B49">
         <v>45</v>
       </c>
       <c r="C49" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.34689999999999988</v>
       </c>
       <c r="D49" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.2500000000000002E-2</v>
       </c>
       <c r="G49" s="7">
+        <f t="shared" si="30"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H49" s="9">
         <f t="shared" si="28"/>
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="H49" s="9">
-        <f t="shared" si="26"/>
         <v>24</v>
       </c>
-      <c r="I49" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J49" s="25">
+      <c r="I49" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J49">
         <v>2</v>
       </c>
-      <c r="K49" s="25"/>
       <c r="L49" s="5" t="s">
         <v>16</v>
       </c>
@@ -5688,54 +5827,53 @@
         <v>28</v>
       </c>
       <c r="N49" s="6">
-        <f>POWER(10,M49)</f>
+        <f t="shared" si="22"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="O49" s="6" t="str">
-        <f>RIGHT(N49,M49)</f>
+        <f t="shared" si="23"/>
         <v>1E+28</v>
       </c>
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="1:18">
       <c r="A50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+118</v>
       </c>
       <c r="B50">
         <v>46</v>
       </c>
       <c r="C50" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.33129999999999993</v>
       </c>
       <c r="D50" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.500000000000002E-2</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.3000000000000003E-2</v>
       </c>
       <c r="G50" s="7">
+        <f t="shared" si="30"/>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="H50" s="9">
         <f t="shared" si="28"/>
-        <v>7.000000000000001E-4</v>
-      </c>
-      <c r="H50" s="9">
-        <f t="shared" si="26"/>
         <v>24</v>
       </c>
-      <c r="I50" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J50" s="25">
+      <c r="I50" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J50">
         <v>2</v>
       </c>
-      <c r="K50" s="25"/>
       <c r="L50" s="5" t="s">
         <v>17</v>
       </c>
@@ -5743,53 +5881,52 @@
         <v>32</v>
       </c>
       <c r="N50" s="6">
-        <f>POWER(10,M50)</f>
+        <f t="shared" si="22"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="O50" s="6" t="str">
-        <f>RIGHT(N50,M50)</f>
+        <f t="shared" si="23"/>
         <v>1E+32</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+119</v>
       </c>
       <c r="B51">
         <v>47</v>
       </c>
       <c r="C51" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.31569999999999987</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.3500000000000003E-2</v>
       </c>
       <c r="G51" s="7">
+        <f t="shared" si="30"/>
+        <v>8.0000000000000015E-4</v>
+      </c>
+      <c r="H51" s="9">
         <f t="shared" si="28"/>
-        <v>8.0000000000000015E-4</v>
-      </c>
-      <c r="H51" s="9">
-        <f t="shared" si="26"/>
         <v>24</v>
       </c>
-      <c r="I51" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J51" s="25">
+      <c r="I51" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J51">
         <v>2</v>
       </c>
-      <c r="K51" s="25"/>
       <c r="L51" s="5" t="s">
         <v>18</v>
       </c>
@@ -5797,53 +5934,52 @@
         <v>36</v>
       </c>
       <c r="N51" s="6">
-        <f>POWER(10,M51)</f>
+        <f t="shared" si="22"/>
         <v>1E+36</v>
       </c>
       <c r="O51" s="6" t="str">
-        <f>RIGHT(N51,M51)</f>
+        <f t="shared" si="23"/>
         <v>1E+36</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+120</v>
       </c>
       <c r="B52">
         <v>48</v>
       </c>
       <c r="C52" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.30009999999999992</v>
       </c>
       <c r="D52" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.59000000000000008</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.5000000000000029E-2</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.4000000000000004E-2</v>
       </c>
       <c r="G52" s="7">
+        <f t="shared" si="30"/>
+        <v>9.0000000000000019E-4</v>
+      </c>
+      <c r="H52" s="9">
         <f t="shared" si="28"/>
-        <v>9.0000000000000019E-4</v>
-      </c>
-      <c r="H52" s="9">
-        <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="I52" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J52" s="25">
+      <c r="I52" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J52">
         <v>2</v>
       </c>
-      <c r="K52" s="25"/>
       <c r="L52" s="5" t="s">
         <v>19</v>
       </c>
@@ -5851,53 +5987,52 @@
         <v>40</v>
       </c>
       <c r="N52" s="6">
-        <f>POWER(10,M52)</f>
+        <f t="shared" si="22"/>
         <v>1E+40</v>
       </c>
       <c r="O52" s="6" t="str">
-        <f>RIGHT(N52,M52)</f>
+        <f t="shared" si="23"/>
         <v>1E+40</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="17.25" thickBot="1">
       <c r="A53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+121</v>
       </c>
       <c r="B53" s="14">
         <v>49</v>
       </c>
       <c r="C53" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.28449999999999986</v>
       </c>
       <c r="D53" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.10000000000000003</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.4500000000000004E-2</v>
       </c>
       <c r="G53" s="7">
+        <f t="shared" si="30"/>
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="H53" s="9">
         <f t="shared" si="28"/>
-        <v>1.0000000000000002E-3</v>
-      </c>
-      <c r="H53" s="9">
-        <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="I53" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J53" s="25">
+      <c r="I53" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J53">
         <v>2</v>
       </c>
-      <c r="K53" s="25"/>
       <c r="L53" s="5" t="s">
         <v>20</v>
       </c>
@@ -5905,53 +6040,52 @@
         <v>44</v>
       </c>
       <c r="N53" s="6">
-        <f>POWER(10,M53)</f>
+        <f t="shared" si="22"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="O53" s="6" t="str">
-        <f>RIGHT(N53,M53)</f>
+        <f t="shared" si="23"/>
         <v>1E+44</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+122</v>
       </c>
       <c r="B54">
         <v>50</v>
       </c>
       <c r="C54" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.26889999999999992</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.6100000000000001</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.10500000000000004</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.5000000000000005E-2</v>
       </c>
       <c r="G54" s="7">
+        <f t="shared" si="30"/>
+        <v>1.1000000000000003E-3</v>
+      </c>
+      <c r="H54" s="9">
         <f t="shared" si="28"/>
-        <v>1.1000000000000003E-3</v>
-      </c>
-      <c r="H54" s="9">
-        <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="I54" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J54" s="25">
+      <c r="I54" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J54">
         <v>2</v>
       </c>
-      <c r="K54" s="25"/>
       <c r="L54" s="5" t="s">
         <v>21</v>
       </c>
@@ -5959,53 +6093,52 @@
         <v>48</v>
       </c>
       <c r="N54" s="6">
-        <f>POWER(10,M54)</f>
+        <f t="shared" si="22"/>
         <v>1E+48</v>
       </c>
       <c r="O54" s="6" t="str">
-        <f>RIGHT(N54,M54)</f>
+        <f t="shared" si="23"/>
         <v>1E+48</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+123</v>
       </c>
       <c r="B55">
         <v>51</v>
       </c>
       <c r="C55" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.25329999999999986</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.62000000000000011</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.11000000000000004</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.5500000000000005E-2</v>
       </c>
       <c r="G55" s="7">
+        <f t="shared" si="30"/>
+        <v>1.2000000000000003E-3</v>
+      </c>
+      <c r="H55" s="9">
         <f t="shared" si="28"/>
-        <v>1.2000000000000003E-3</v>
-      </c>
-      <c r="H55" s="9">
-        <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="I55" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J55" s="25">
+      <c r="I55" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J55">
         <v>2</v>
       </c>
-      <c r="K55" s="25"/>
       <c r="L55" s="5" t="s">
         <v>23</v>
       </c>
@@ -6013,53 +6146,52 @@
         <v>52</v>
       </c>
       <c r="N55" s="6">
-        <f>POWER(10,M55)</f>
+        <f t="shared" si="22"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="O55" s="6" t="str">
-        <f>RIGHT(N55,M55)</f>
+        <f t="shared" si="23"/>
         <v>1E+52</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+124</v>
       </c>
       <c r="B56">
         <v>52</v>
       </c>
       <c r="C56" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.23769999999999991</v>
       </c>
       <c r="D56" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.63000000000000012</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.11500000000000005</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.6000000000000004E-2</v>
       </c>
       <c r="G56" s="7">
+        <f t="shared" si="30"/>
+        <v>1.3000000000000004E-3</v>
+      </c>
+      <c r="H56" s="9">
         <f t="shared" si="28"/>
-        <v>1.3000000000000004E-3</v>
-      </c>
-      <c r="H56" s="9">
-        <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="I56" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J56" s="25">
+      <c r="I56" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J56">
         <v>2</v>
       </c>
-      <c r="K56" s="25"/>
       <c r="L56" s="5" t="s">
         <v>24</v>
       </c>
@@ -6067,53 +6199,52 @@
         <v>56</v>
       </c>
       <c r="N56" s="6">
-        <f>POWER(10,M56)</f>
+        <f t="shared" si="22"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="O56" s="6" t="str">
-        <f>RIGHT(N56,M56)</f>
+        <f t="shared" si="23"/>
         <v>1E+56</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+125</v>
       </c>
       <c r="B57">
         <v>53</v>
       </c>
       <c r="C57" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.22209999999999985</v>
       </c>
       <c r="D57" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.64000000000000012</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.12000000000000005</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.6500000000000004E-2</v>
       </c>
       <c r="G57" s="7">
+        <f t="shared" si="30"/>
+        <v>1.4000000000000004E-3</v>
+      </c>
+      <c r="H57" s="9">
         <f t="shared" si="28"/>
-        <v>1.4000000000000004E-3</v>
-      </c>
-      <c r="H57" s="9">
-        <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="I57" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J57" s="25">
+      <c r="I57" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J57">
         <v>2</v>
       </c>
-      <c r="K57" s="25"/>
       <c r="L57" s="5" t="s">
         <v>25</v>
       </c>
@@ -6121,53 +6252,52 @@
         <v>60</v>
       </c>
       <c r="N57" s="6">
-        <f>POWER(10,M57)</f>
+        <f t="shared" si="22"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="O57" s="6" t="str">
-        <f>RIGHT(N57,M57)</f>
+        <f t="shared" si="23"/>
         <v>1E+60</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+126</v>
       </c>
       <c r="B58">
         <v>54</v>
       </c>
       <c r="C58" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.20649999999999991</v>
       </c>
       <c r="D58" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.12500000000000006</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.7000000000000005E-2</v>
       </c>
       <c r="G58" s="7">
+        <f t="shared" si="30"/>
+        <v>1.5000000000000005E-3</v>
+      </c>
+      <c r="H58" s="9">
         <f t="shared" si="28"/>
-        <v>1.5000000000000005E-3</v>
-      </c>
-      <c r="H58" s="9">
-        <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="I58" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J58" s="25">
+      <c r="I58" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J58">
         <v>2</v>
       </c>
-      <c r="K58" s="25"/>
       <c r="L58" s="5" t="s">
         <v>26</v>
       </c>
@@ -6175,53 +6305,52 @@
         <v>64</v>
       </c>
       <c r="N58" s="6">
-        <f>POWER(10,M58)</f>
+        <f t="shared" si="22"/>
         <v>1E+64</v>
       </c>
       <c r="O58" s="6" t="str">
-        <f>RIGHT(N58,M58)</f>
+        <f t="shared" si="23"/>
         <v>1E+64</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+127</v>
       </c>
       <c r="B59">
         <v>55</v>
       </c>
       <c r="C59" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.19089999999999974</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.66000000000000014</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.13000000000000006</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.7500000000000005E-2</v>
       </c>
       <c r="G59" s="7">
+        <f t="shared" si="30"/>
+        <v>1.6000000000000005E-3</v>
+      </c>
+      <c r="H59" s="9">
         <f t="shared" si="28"/>
-        <v>1.6000000000000005E-3</v>
-      </c>
-      <c r="H59" s="9">
-        <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="I59" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J59" s="25">
+      <c r="I59" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J59">
         <v>2</v>
       </c>
-      <c r="K59" s="25"/>
       <c r="L59" s="5" t="s">
         <v>27</v>
       </c>
@@ -6229,53 +6358,52 @@
         <v>68</v>
       </c>
       <c r="N59" s="6">
-        <f>POWER(10,M59)</f>
+        <f t="shared" si="22"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="O59" s="6" t="str">
-        <f>RIGHT(N59,M59)</f>
+        <f t="shared" si="23"/>
         <v>1E+68</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="A60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="B60">
         <v>56</v>
       </c>
       <c r="C60" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.17529999999999979</v>
       </c>
       <c r="D60" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.67000000000000015</v>
       </c>
       <c r="E60" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.13500000000000006</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.8000000000000006E-2</v>
       </c>
       <c r="G60" s="7">
+        <f t="shared" si="30"/>
+        <v>1.7000000000000006E-3</v>
+      </c>
+      <c r="H60" s="9">
         <f t="shared" si="28"/>
-        <v>1.7000000000000006E-3</v>
-      </c>
-      <c r="H60" s="9">
-        <f t="shared" si="26"/>
         <v>32</v>
       </c>
-      <c r="I60" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J60" s="25">
+      <c r="I60" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J60">
         <v>2</v>
       </c>
-      <c r="K60" s="25"/>
       <c r="L60" s="5" t="s">
         <v>28</v>
       </c>
@@ -6283,53 +6411,52 @@
         <v>72</v>
       </c>
       <c r="N60" s="6">
-        <f>POWER(10,M60)</f>
+        <f t="shared" si="22"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="O60" s="6" t="str">
-        <f>RIGHT(N60,M60)</f>
+        <f t="shared" si="23"/>
         <v>1E+72</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+129</v>
       </c>
       <c r="B61">
         <v>57</v>
       </c>
       <c r="C61" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.15969999999999973</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.68000000000000016</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.14000000000000007</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.8500000000000006E-2</v>
       </c>
       <c r="G61" s="7">
+        <f t="shared" si="30"/>
+        <v>1.8000000000000006E-3</v>
+      </c>
+      <c r="H61" s="9">
         <f t="shared" si="28"/>
-        <v>1.8000000000000006E-3</v>
-      </c>
-      <c r="H61" s="9">
-        <f t="shared" si="26"/>
         <v>32</v>
       </c>
-      <c r="I61" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J61" s="25">
+      <c r="I61" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J61">
         <v>2</v>
       </c>
-      <c r="K61" s="25"/>
       <c r="L61" s="5" t="s">
         <v>29</v>
       </c>
@@ -6337,53 +6464,52 @@
         <v>76</v>
       </c>
       <c r="N61" s="6">
-        <f>POWER(10,M61)</f>
+        <f t="shared" si="22"/>
         <v>1E+76</v>
       </c>
       <c r="O61" s="6" t="str">
-        <f>RIGHT(N61,M61)</f>
+        <f t="shared" si="23"/>
         <v>1E+76</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="B62">
         <v>58</v>
       </c>
       <c r="C62" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.14409999999999978</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.69000000000000017</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.14500000000000007</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.9000000000000006E-2</v>
       </c>
       <c r="G62" s="7">
+        <f t="shared" si="30"/>
+        <v>1.9000000000000006E-3</v>
+      </c>
+      <c r="H62" s="9">
         <f t="shared" si="28"/>
-        <v>1.9000000000000006E-3</v>
-      </c>
-      <c r="H62" s="9">
-        <f t="shared" si="26"/>
         <v>32</v>
       </c>
-      <c r="I62" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J62" s="25">
+      <c r="I62" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J62">
         <v>2</v>
       </c>
-      <c r="K62" s="25"/>
       <c r="L62" s="5" t="s">
         <v>30</v>
       </c>
@@ -6391,53 +6517,52 @@
         <v>80</v>
       </c>
       <c r="N62" s="6">
-        <f>POWER(10,M62)</f>
+        <f t="shared" si="22"/>
         <v>1E+80</v>
       </c>
       <c r="O62" s="6" t="str">
-        <f>RIGHT(N62,M62)</f>
+        <f t="shared" si="23"/>
         <v>1E+80</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="17.25" thickBot="1">
       <c r="A63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="B63" s="14">
         <v>59</v>
       </c>
       <c r="C63" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.12849999999999973</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.15000000000000008</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.9500000000000007E-2</v>
       </c>
       <c r="G63" s="7">
+        <f t="shared" si="30"/>
+        <v>2.0000000000000005E-3</v>
+      </c>
+      <c r="H63" s="9">
         <f t="shared" si="28"/>
-        <v>2.0000000000000005E-3</v>
-      </c>
-      <c r="H63" s="9">
-        <f t="shared" si="26"/>
         <v>32</v>
       </c>
-      <c r="I63" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J63" s="25">
+      <c r="I63" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J63">
         <v>2</v>
       </c>
-      <c r="K63" s="25"/>
       <c r="L63" s="5" t="s">
         <v>31</v>
       </c>
@@ -6445,53 +6570,52 @@
         <v>84</v>
       </c>
       <c r="N63" s="6">
-        <f>POWER(10,M63)</f>
+        <f t="shared" si="22"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="O63" s="6" t="str">
-        <f>RIGHT(N63,M63)</f>
+        <f t="shared" si="23"/>
         <v>1E+84</v>
       </c>
     </row>
     <row r="64" spans="1:18">
       <c r="A64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+132</v>
       </c>
       <c r="B64">
         <v>60</v>
       </c>
       <c r="C64" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.11289999999999978</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.71000000000000019</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.15500000000000008</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.0000000000000007E-2</v>
       </c>
       <c r="G64" s="7">
+        <f t="shared" si="30"/>
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="H64" s="9">
         <f t="shared" si="28"/>
-        <v>2.1000000000000003E-3</v>
-      </c>
-      <c r="H64" s="9">
-        <f t="shared" si="26"/>
         <v>32</v>
       </c>
-      <c r="I64" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J64" s="25">
+      <c r="I64" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J64">
         <v>2</v>
       </c>
-      <c r="K64" s="25"/>
       <c r="L64" s="5" t="s">
         <v>10</v>
       </c>
@@ -6499,53 +6623,52 @@
         <v>88</v>
       </c>
       <c r="N64" s="6">
-        <f>POWER(10,M64)</f>
+        <f t="shared" si="22"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="O64" s="6" t="str">
-        <f>RIGHT(N64,M64)</f>
+        <f t="shared" si="23"/>
         <v>1E+88</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+133</v>
       </c>
       <c r="B65">
         <v>61</v>
       </c>
       <c r="C65" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.729999999999972E-2</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.7200000000000002</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.16000000000000009</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.0500000000000008E-2</v>
       </c>
       <c r="G65" s="7">
+        <f t="shared" si="30"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H65" s="9">
         <f t="shared" si="28"/>
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="H65" s="9">
-        <f t="shared" si="26"/>
         <v>32</v>
       </c>
-      <c r="I65" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J65" s="25">
+      <c r="I65" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J65">
         <v>2</v>
       </c>
-      <c r="K65" s="25"/>
       <c r="L65" s="5" t="s">
         <v>22</v>
       </c>
@@ -6553,53 +6676,52 @@
         <v>92</v>
       </c>
       <c r="N65" s="6">
-        <f>POWER(10,M65)</f>
+        <f t="shared" si="22"/>
         <v>1E+92</v>
       </c>
       <c r="O65" s="6" t="str">
-        <f>RIGHT(N65,M65)</f>
+        <f t="shared" si="23"/>
         <v>1E+92</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+134</v>
       </c>
       <c r="B66">
         <v>62</v>
       </c>
       <c r="C66" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.1699999999999773E-2</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.7300000000000002</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.16500000000000009</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.1000000000000008E-2</v>
       </c>
       <c r="G66" s="7">
+        <f t="shared" si="30"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="H66" s="9">
         <f t="shared" si="28"/>
-        <v>2.3E-3</v>
-      </c>
-      <c r="H66" s="9">
-        <f t="shared" si="26"/>
         <v>32</v>
       </c>
-      <c r="I66" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J66" s="25">
+      <c r="I66" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J66">
         <v>2</v>
       </c>
-      <c r="K66" s="25"/>
       <c r="L66" s="5" t="s">
         <v>32</v>
       </c>
@@ -6607,53 +6729,52 @@
         <v>96</v>
       </c>
       <c r="N66" s="6">
-        <f>POWER(10,M66)</f>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="O66" s="6" t="str">
-        <f>RIGHT(N66,M66)</f>
+        <f t="shared" si="23"/>
         <v>1E+96</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+135</v>
       </c>
       <c r="B67">
         <v>63</v>
       </c>
       <c r="C67" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.6099999999999715E-2</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.74000000000000021</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.1700000000000001</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.1500000000000009E-2</v>
       </c>
       <c r="G67" s="7">
+        <f t="shared" si="30"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="H67" s="9">
         <f t="shared" si="28"/>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="H67" s="9">
-        <f t="shared" si="26"/>
         <v>32</v>
       </c>
-      <c r="I67" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J67" s="25">
+      <c r="I67" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J67">
         <v>2</v>
       </c>
-      <c r="K67" s="25"/>
       <c r="L67" s="5" t="s">
         <v>42</v>
       </c>
@@ -6661,53 +6782,52 @@
         <v>100</v>
       </c>
       <c r="N67" s="6">
-        <f>POWER(10,M67)</f>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="O67" s="6" t="str">
-        <f>RIGHT(N67,M67)</f>
+        <f t="shared" si="23"/>
         <v>1E+100</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+136</v>
       </c>
       <c r="B68">
         <v>64</v>
       </c>
       <c r="C68" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0499999999999767E-2</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.75000000000000022</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.1750000000000001</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.2000000000000009E-2</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.4999999999999996E-3</v>
       </c>
       <c r="H68" s="9">
         <f>H60+5</f>
         <v>37</v>
       </c>
-      <c r="I68" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J68" s="25">
+      <c r="I68" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J68">
         <v>3</v>
       </c>
-      <c r="K68" s="25"/>
       <c r="L68" s="5" t="s">
         <v>43</v>
       </c>
@@ -6715,53 +6835,52 @@
         <v>104</v>
       </c>
       <c r="N68" s="6">
-        <f>POWER(10,M68)</f>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="O68" s="6" t="str">
-        <f>RIGHT(N68,M68)</f>
+        <f t="shared" si="23"/>
         <v>1E+104</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+137</v>
       </c>
       <c r="B69">
         <v>65</v>
       </c>
       <c r="C69" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.4899999999999598E-2</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.76000000000000023</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.1800000000000001</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.250000000000001E-2</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.5999999999999994E-3</v>
       </c>
       <c r="H69" s="9">
-        <f t="shared" ref="H69:H103" si="29">H61+5</f>
+        <f t="shared" ref="H69:H91" si="31">H61+5</f>
         <v>37</v>
       </c>
-      <c r="I69" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J69" s="25">
+      <c r="I69" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J69">
         <v>3</v>
       </c>
-      <c r="K69" s="25"/>
       <c r="L69" s="5" t="s">
         <v>44</v>
       </c>
@@ -6769,53 +6888,52 @@
         <v>108</v>
       </c>
       <c r="N69" s="6">
-        <f>POWER(10,M69)</f>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="O69" s="6" t="str">
-        <f>RIGHT(N69,M69)</f>
+        <f t="shared" si="23"/>
         <v>1E+108</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+138</v>
       </c>
       <c r="B70">
         <v>66</v>
       </c>
       <c r="C70" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.9299999999999651E-2</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.77000000000000024</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.18500000000000011</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.300000000000001E-2</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.6999999999999993E-3</v>
       </c>
       <c r="H70" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>37</v>
       </c>
-      <c r="I70" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J70" s="25">
+      <c r="I70" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J70">
         <v>3</v>
       </c>
-      <c r="K70" s="25"/>
       <c r="L70" s="5" t="s">
         <v>68</v>
       </c>
@@ -6823,53 +6941,52 @@
         <v>112</v>
       </c>
       <c r="N70" s="6">
-        <f>POWER(10,M70)</f>
+        <f t="shared" si="22"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="O70" s="6" t="str">
-        <f>RIGHT(N70,M70)</f>
+        <f t="shared" si="23"/>
         <v>1E+112</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+139</v>
       </c>
       <c r="B71">
         <v>67</v>
       </c>
       <c r="C71" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.6999999999995925E-3</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.78000000000000025</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19000000000000011</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.350000000000001E-2</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.7999999999999991E-3</v>
       </c>
       <c r="H71" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>37</v>
       </c>
-      <c r="I71" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J71" s="25">
+      <c r="I71" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J71">
         <v>3</v>
       </c>
-      <c r="K71" s="25"/>
       <c r="L71" s="5" t="s">
         <v>69</v>
       </c>
@@ -6877,53 +6994,52 @@
         <v>116</v>
       </c>
       <c r="N71" s="6">
-        <f>POWER(10,M71)</f>
+        <f t="shared" si="22"/>
         <v>1E+116</v>
       </c>
       <c r="O71" s="6" t="str">
-        <f>RIGHT(N71,M71)</f>
+        <f t="shared" si="23"/>
         <v>1E+116</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000003E+140</v>
       </c>
       <c r="B72">
         <v>68</v>
       </c>
       <c r="C72" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-1.1900000000000244E-2</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.79000000000000026</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19500000000000012</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.4000000000000011E-2</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.8999999999999989E-3</v>
       </c>
       <c r="H72" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>37</v>
       </c>
-      <c r="I72" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J72" s="25">
+      <c r="I72" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J72">
         <v>3</v>
       </c>
-      <c r="K72" s="25"/>
       <c r="L72" s="5" t="s">
         <v>45</v>
       </c>
@@ -6931,17 +7047,17 @@
         <v>120</v>
       </c>
       <c r="N72" s="6">
-        <f>POWER(10,M72)</f>
+        <f t="shared" si="22"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="O72" s="6" t="str">
-        <f>RIGHT(N72,M72)</f>
+        <f t="shared" si="23"/>
         <v>1E+120</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="17.25" thickBot="1">
       <c r="A73">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+141</v>
       </c>
       <c r="B73" s="14">
@@ -6955,28 +7071,27 @@
         <v>0.77249999999999985</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.20000000000000012</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.4500000000000011E-2</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.9999999999999988E-3</v>
       </c>
       <c r="H73" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>37</v>
       </c>
-      <c r="I73" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J73" s="25">
+      <c r="I73" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J73">
         <v>3</v>
       </c>
-      <c r="K73" s="25"/>
       <c r="L73" s="5" t="s">
         <v>46</v>
       </c>
@@ -6984,17 +7099,17 @@
         <v>124</v>
       </c>
       <c r="N73" s="6">
-        <f>POWER(10,M73)</f>
+        <f t="shared" si="22"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="O73" s="6" t="str">
-        <f>RIGHT(N73,M73)</f>
+        <f t="shared" si="23"/>
         <v>1E+124</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+142</v>
       </c>
       <c r="B74">
@@ -7004,32 +7119,31 @@
         <v>0</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" ref="D74:D103" si="30">100%-(E74+F74+G74)</f>
+        <f t="shared" ref="D74:D103" si="32">100%-(E74+F74+G74)</f>
         <v>0.76689999999999992</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.20500000000000013</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.5000000000000012E-2</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.0999999999999986E-3</v>
       </c>
       <c r="H74" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>37</v>
       </c>
-      <c r="I74" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J74" s="25">
+      <c r="I74" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J74">
         <v>3</v>
       </c>
-      <c r="K74" s="25"/>
       <c r="L74" s="5" t="s">
         <v>77</v>
       </c>
@@ -7037,17 +7151,17 @@
         <v>128</v>
       </c>
       <c r="N74" s="6">
-        <f>POWER(10,M74)</f>
+        <f t="shared" si="22"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="O74" s="6" t="str">
-        <f>RIGHT(N74,M74)</f>
+        <f t="shared" si="23"/>
         <v>1E+128</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+143</v>
       </c>
       <c r="B75">
@@ -7057,32 +7171,31 @@
         <v>0</v>
       </c>
       <c r="D75" s="7">
+        <f t="shared" si="32"/>
+        <v>0.76129999999999987</v>
+      </c>
+      <c r="E75" s="7">
+        <f t="shared" si="27"/>
+        <v>0.21000000000000013</v>
+      </c>
+      <c r="F75" s="7">
+        <f t="shared" si="29"/>
+        <v>2.5500000000000012E-2</v>
+      </c>
+      <c r="G75" s="7">
         <f t="shared" si="30"/>
-        <v>0.76129999999999987</v>
-      </c>
-      <c r="E75" s="7">
-        <f t="shared" si="25"/>
-        <v>0.21000000000000013</v>
-      </c>
-      <c r="F75" s="7">
-        <f t="shared" si="27"/>
-        <v>2.5500000000000012E-2</v>
-      </c>
-      <c r="G75" s="7">
-        <f t="shared" si="28"/>
         <v>3.1999999999999984E-3</v>
       </c>
       <c r="H75" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>37</v>
       </c>
-      <c r="I75" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J75" s="25">
+      <c r="I75" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J75">
         <v>3</v>
       </c>
-      <c r="K75" s="25"/>
       <c r="L75" s="5" t="s">
         <v>78</v>
       </c>
@@ -7090,17 +7203,17 @@
         <v>132</v>
       </c>
       <c r="N75" s="6">
-        <f>POWER(10,M75)</f>
+        <f t="shared" si="22"/>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="O75" s="6" t="str">
-        <f>RIGHT(N75,M75)</f>
+        <f t="shared" si="23"/>
         <v>1E+132</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+144</v>
       </c>
       <c r="B76">
@@ -7110,32 +7223,31 @@
         <v>0</v>
       </c>
       <c r="D76" s="7">
+        <f t="shared" si="32"/>
+        <v>0.75569999999999982</v>
+      </c>
+      <c r="E76" s="7">
+        <f t="shared" si="27"/>
+        <v>0.21500000000000014</v>
+      </c>
+      <c r="F76" s="7">
+        <f t="shared" si="29"/>
+        <v>2.6000000000000013E-2</v>
+      </c>
+      <c r="G76" s="7">
         <f t="shared" si="30"/>
-        <v>0.75569999999999982</v>
-      </c>
-      <c r="E76" s="7">
-        <f t="shared" si="25"/>
-        <v>0.21500000000000014</v>
-      </c>
-      <c r="F76" s="7">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000013E-2</v>
-      </c>
-      <c r="G76" s="7">
-        <f t="shared" si="28"/>
         <v>3.2999999999999982E-3</v>
       </c>
       <c r="H76" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
-      <c r="I76" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J76" s="25">
+      <c r="I76" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J76">
         <v>3</v>
       </c>
-      <c r="K76" s="25"/>
       <c r="L76" s="5" t="s">
         <v>79</v>
       </c>
@@ -7143,17 +7255,17 @@
         <v>136</v>
       </c>
       <c r="N76" s="6">
-        <f>POWER(10,M76)</f>
+        <f t="shared" si="22"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="O76" s="6" t="str">
-        <f>RIGHT(N76,M76)</f>
+        <f t="shared" si="23"/>
         <v>1E+136</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000003E+145</v>
       </c>
       <c r="B77">
@@ -7163,36 +7275,35 @@
         <v>0</v>
       </c>
       <c r="D77" s="7">
+        <f t="shared" si="32"/>
+        <v>0.75009999999999988</v>
+      </c>
+      <c r="E77" s="7">
+        <f t="shared" si="27"/>
+        <v>0.22000000000000014</v>
+      </c>
+      <c r="F77" s="7">
+        <f t="shared" si="29"/>
+        <v>2.6500000000000013E-2</v>
+      </c>
+      <c r="G77" s="7">
         <f t="shared" si="30"/>
-        <v>0.75009999999999988</v>
-      </c>
-      <c r="E77" s="7">
-        <f t="shared" si="25"/>
-        <v>0.22000000000000014</v>
-      </c>
-      <c r="F77" s="7">
-        <f t="shared" si="27"/>
-        <v>2.6500000000000013E-2</v>
-      </c>
-      <c r="G77" s="7">
-        <f t="shared" si="28"/>
         <v>3.3999999999999981E-3</v>
       </c>
       <c r="H77" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
-      <c r="I77" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J77" s="25">
+      <c r="I77" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J77">
         <v>3</v>
       </c>
-      <c r="K77" s="25"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+146</v>
       </c>
       <c r="B78">
@@ -7202,36 +7313,35 @@
         <v>0</v>
       </c>
       <c r="D78" s="7">
+        <f t="shared" si="32"/>
+        <v>0.74449999999999983</v>
+      </c>
+      <c r="E78" s="7">
+        <f t="shared" si="27"/>
+        <v>0.22500000000000014</v>
+      </c>
+      <c r="F78" s="7">
+        <f t="shared" si="29"/>
+        <v>2.7000000000000014E-2</v>
+      </c>
+      <c r="G78" s="7">
         <f t="shared" si="30"/>
-        <v>0.74449999999999983</v>
-      </c>
-      <c r="E78" s="7">
-        <f t="shared" si="25"/>
-        <v>0.22500000000000014</v>
-      </c>
-      <c r="F78" s="7">
-        <f t="shared" si="27"/>
-        <v>2.7000000000000014E-2</v>
-      </c>
-      <c r="G78" s="7">
-        <f t="shared" si="28"/>
         <v>3.4999999999999979E-3</v>
       </c>
       <c r="H78" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
-      <c r="I78" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J78" s="25">
+      <c r="I78" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J78">
         <v>3</v>
       </c>
-      <c r="K78" s="25"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+147</v>
       </c>
       <c r="B79">
@@ -7241,36 +7351,35 @@
         <v>0</v>
       </c>
       <c r="D79" s="7">
+        <f t="shared" si="32"/>
+        <v>0.73889999999999989</v>
+      </c>
+      <c r="E79" s="7">
+        <f t="shared" si="27"/>
+        <v>0.23000000000000015</v>
+      </c>
+      <c r="F79" s="7">
+        <f t="shared" si="29"/>
+        <v>2.7500000000000014E-2</v>
+      </c>
+      <c r="G79" s="7">
         <f t="shared" si="30"/>
-        <v>0.73889999999999989</v>
-      </c>
-      <c r="E79" s="7">
-        <f t="shared" si="25"/>
-        <v>0.23000000000000015</v>
-      </c>
-      <c r="F79" s="7">
-        <f t="shared" si="27"/>
-        <v>2.7500000000000014E-2</v>
-      </c>
-      <c r="G79" s="7">
-        <f t="shared" si="28"/>
         <v>3.5999999999999977E-3</v>
       </c>
       <c r="H79" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
-      <c r="I79" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J79" s="25">
+      <c r="I79" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J79">
         <v>3</v>
       </c>
-      <c r="K79" s="25"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="B80">
@@ -7280,36 +7389,35 @@
         <v>0</v>
       </c>
       <c r="D80" s="7">
+        <f t="shared" si="32"/>
+        <v>0.73329999999999984</v>
+      </c>
+      <c r="E80" s="7">
+        <f t="shared" si="27"/>
+        <v>0.23500000000000015</v>
+      </c>
+      <c r="F80" s="7">
+        <f t="shared" si="29"/>
+        <v>2.8000000000000014E-2</v>
+      </c>
+      <c r="G80" s="7">
         <f t="shared" si="30"/>
-        <v>0.73329999999999984</v>
-      </c>
-      <c r="E80" s="7">
-        <f t="shared" si="25"/>
-        <v>0.23500000000000015</v>
-      </c>
-      <c r="F80" s="7">
-        <f t="shared" si="27"/>
-        <v>2.8000000000000014E-2</v>
-      </c>
-      <c r="G80" s="7">
-        <f t="shared" si="28"/>
         <v>3.6999999999999976E-3</v>
       </c>
       <c r="H80" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
-      <c r="I80" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J80" s="25">
+      <c r="I80" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J80">
         <v>3</v>
       </c>
-      <c r="K80" s="25"/>
-    </row>
-    <row r="81" spans="1:11">
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+149</v>
       </c>
       <c r="B81">
@@ -7319,36 +7427,35 @@
         <v>0</v>
       </c>
       <c r="D81" s="7">
+        <f t="shared" si="32"/>
+        <v>0.72769999999999979</v>
+      </c>
+      <c r="E81" s="7">
+        <f t="shared" si="27"/>
+        <v>0.24000000000000016</v>
+      </c>
+      <c r="F81" s="7">
+        <f t="shared" si="29"/>
+        <v>2.8500000000000015E-2</v>
+      </c>
+      <c r="G81" s="7">
         <f t="shared" si="30"/>
-        <v>0.72769999999999979</v>
-      </c>
-      <c r="E81" s="7">
-        <f t="shared" si="25"/>
-        <v>0.24000000000000016</v>
-      </c>
-      <c r="F81" s="7">
-        <f t="shared" si="27"/>
-        <v>2.8500000000000015E-2</v>
-      </c>
-      <c r="G81" s="7">
-        <f t="shared" si="28"/>
         <v>3.7999999999999974E-3</v>
       </c>
       <c r="H81" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
-      <c r="I81" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J81" s="25">
+      <c r="I81" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J81">
         <v>3</v>
       </c>
-      <c r="K81" s="25"/>
-    </row>
-    <row r="82" spans="1:11">
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+150</v>
       </c>
       <c r="B82">
@@ -7358,36 +7465,35 @@
         <v>0</v>
       </c>
       <c r="D82" s="7">
+        <f t="shared" si="32"/>
+        <v>0.72209999999999974</v>
+      </c>
+      <c r="E82" s="7">
+        <f t="shared" si="27"/>
+        <v>0.24500000000000016</v>
+      </c>
+      <c r="F82" s="7">
+        <f t="shared" si="29"/>
+        <v>2.9000000000000015E-2</v>
+      </c>
+      <c r="G82" s="7">
         <f t="shared" si="30"/>
-        <v>0.72209999999999974</v>
-      </c>
-      <c r="E82" s="7">
-        <f t="shared" si="25"/>
-        <v>0.24500000000000016</v>
-      </c>
-      <c r="F82" s="7">
-        <f t="shared" si="27"/>
-        <v>2.9000000000000015E-2</v>
-      </c>
-      <c r="G82" s="7">
-        <f t="shared" si="28"/>
         <v>3.8999999999999972E-3</v>
       </c>
       <c r="H82" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
-      <c r="I82" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J82" s="25">
+      <c r="I82" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J82">
         <v>3</v>
       </c>
-      <c r="K82" s="25"/>
-    </row>
-    <row r="83" spans="1:11" ht="17.25" thickBot="1">
+    </row>
+    <row r="83" spans="1:10" ht="17.25" thickBot="1">
       <c r="A83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+151</v>
       </c>
       <c r="B83" s="14">
@@ -7397,36 +7503,35 @@
         <v>0</v>
       </c>
       <c r="D83" s="7">
+        <f t="shared" si="32"/>
+        <v>0.7164999999999998</v>
+      </c>
+      <c r="E83" s="7">
+        <f t="shared" si="27"/>
+        <v>0.25000000000000017</v>
+      </c>
+      <c r="F83" s="7">
+        <f t="shared" si="29"/>
+        <v>2.9500000000000016E-2</v>
+      </c>
+      <c r="G83" s="7">
         <f t="shared" si="30"/>
-        <v>0.7164999999999998</v>
-      </c>
-      <c r="E83" s="7">
-        <f t="shared" si="25"/>
-        <v>0.25000000000000017</v>
-      </c>
-      <c r="F83" s="7">
-        <f t="shared" si="27"/>
-        <v>2.9500000000000016E-2</v>
-      </c>
-      <c r="G83" s="7">
-        <f t="shared" si="28"/>
         <v>3.9999999999999975E-3</v>
       </c>
       <c r="H83" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
-      <c r="I83" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J83" s="25">
+      <c r="I83" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J83">
         <v>3</v>
       </c>
-      <c r="K83" s="25"/>
-    </row>
-    <row r="84" spans="1:11">
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+152</v>
       </c>
       <c r="B84">
@@ -7436,36 +7541,35 @@
         <v>0</v>
       </c>
       <c r="D84" s="7">
+        <f t="shared" si="32"/>
+        <v>0.71089999999999987</v>
+      </c>
+      <c r="E84" s="7">
+        <f t="shared" si="27"/>
+        <v>0.25500000000000017</v>
+      </c>
+      <c r="F84" s="7">
+        <f t="shared" si="29"/>
+        <v>3.0000000000000016E-2</v>
+      </c>
+      <c r="G84" s="7">
         <f t="shared" si="30"/>
-        <v>0.71089999999999987</v>
-      </c>
-      <c r="E84" s="7">
-        <f t="shared" si="25"/>
-        <v>0.25500000000000017</v>
-      </c>
-      <c r="F84" s="7">
-        <f t="shared" si="27"/>
-        <v>3.0000000000000016E-2</v>
-      </c>
-      <c r="G84" s="7">
-        <f t="shared" si="28"/>
         <v>4.0999999999999977E-3</v>
       </c>
       <c r="H84" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
-      <c r="I84" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J84" s="25">
+      <c r="I84" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J84">
         <v>3</v>
       </c>
-      <c r="K84" s="25"/>
-    </row>
-    <row r="85" spans="1:11">
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+153</v>
       </c>
       <c r="B85">
@@ -7475,36 +7579,35 @@
         <v>0</v>
       </c>
       <c r="D85" s="7">
+        <f t="shared" si="32"/>
+        <v>0.70529999999999982</v>
+      </c>
+      <c r="E85" s="7">
+        <f t="shared" si="27"/>
+        <v>0.26000000000000018</v>
+      </c>
+      <c r="F85" s="7">
+        <f t="shared" si="29"/>
+        <v>3.0500000000000017E-2</v>
+      </c>
+      <c r="G85" s="7">
         <f t="shared" si="30"/>
-        <v>0.70529999999999982</v>
-      </c>
-      <c r="E85" s="7">
-        <f t="shared" si="25"/>
-        <v>0.26000000000000018</v>
-      </c>
-      <c r="F85" s="7">
-        <f t="shared" si="27"/>
-        <v>3.0500000000000017E-2</v>
-      </c>
-      <c r="G85" s="7">
-        <f t="shared" si="28"/>
         <v>4.199999999999998E-3</v>
       </c>
       <c r="H85" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
-      <c r="I85" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J85" s="25">
+      <c r="I85" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J85">
         <v>3</v>
       </c>
-      <c r="K85" s="25"/>
-    </row>
-    <row r="86" spans="1:11">
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+154</v>
       </c>
       <c r="B86">
@@ -7514,36 +7617,35 @@
         <v>0</v>
       </c>
       <c r="D86" s="7">
+        <f t="shared" si="32"/>
+        <v>0.69969999999999977</v>
+      </c>
+      <c r="E86" s="7">
+        <f t="shared" si="27"/>
+        <v>0.26500000000000018</v>
+      </c>
+      <c r="F86" s="7">
+        <f t="shared" si="29"/>
+        <v>3.1000000000000017E-2</v>
+      </c>
+      <c r="G86" s="7">
         <f t="shared" si="30"/>
-        <v>0.69969999999999977</v>
-      </c>
-      <c r="E86" s="7">
-        <f t="shared" si="25"/>
-        <v>0.26500000000000018</v>
-      </c>
-      <c r="F86" s="7">
-        <f t="shared" si="27"/>
-        <v>3.1000000000000017E-2</v>
-      </c>
-      <c r="G86" s="7">
-        <f t="shared" si="28"/>
         <v>4.2999999999999983E-3</v>
       </c>
       <c r="H86" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
-      <c r="I86" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J86" s="25">
+      <c r="I86" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J86">
         <v>3</v>
       </c>
-      <c r="K86" s="25"/>
-    </row>
-    <row r="87" spans="1:11">
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+155</v>
       </c>
       <c r="B87">
@@ -7553,36 +7655,35 @@
         <v>0</v>
       </c>
       <c r="D87" s="7">
+        <f t="shared" si="32"/>
+        <v>0.69409999999999972</v>
+      </c>
+      <c r="E87" s="7">
+        <f t="shared" si="27"/>
+        <v>0.27000000000000018</v>
+      </c>
+      <c r="F87" s="7">
+        <f t="shared" si="29"/>
+        <v>3.1500000000000014E-2</v>
+      </c>
+      <c r="G87" s="7">
         <f t="shared" si="30"/>
-        <v>0.69409999999999972</v>
-      </c>
-      <c r="E87" s="7">
-        <f t="shared" si="25"/>
-        <v>0.27000000000000018</v>
-      </c>
-      <c r="F87" s="7">
-        <f t="shared" si="27"/>
-        <v>3.1500000000000014E-2</v>
-      </c>
-      <c r="G87" s="7">
-        <f t="shared" si="28"/>
         <v>4.3999999999999985E-3</v>
       </c>
       <c r="H87" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
-      <c r="I87" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J87" s="25">
+      <c r="I87" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J87">
         <v>3</v>
       </c>
-      <c r="K87" s="25"/>
-    </row>
-    <row r="88" spans="1:11">
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+156</v>
       </c>
       <c r="B88">
@@ -7592,36 +7693,35 @@
         <v>0</v>
       </c>
       <c r="D88" s="7">
+        <f t="shared" si="32"/>
+        <v>0.68849999999999978</v>
+      </c>
+      <c r="E88" s="7">
+        <f t="shared" si="27"/>
+        <v>0.27500000000000019</v>
+      </c>
+      <c r="F88" s="7">
+        <f t="shared" si="29"/>
+        <v>3.2000000000000015E-2</v>
+      </c>
+      <c r="G88" s="7">
         <f t="shared" si="30"/>
-        <v>0.68849999999999978</v>
-      </c>
-      <c r="E88" s="7">
-        <f t="shared" si="25"/>
-        <v>0.27500000000000019</v>
-      </c>
-      <c r="F88" s="7">
-        <f t="shared" si="27"/>
-        <v>3.2000000000000015E-2</v>
-      </c>
-      <c r="G88" s="7">
-        <f t="shared" si="28"/>
         <v>4.4999999999999988E-3</v>
       </c>
       <c r="H88" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
-      <c r="I88" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J88" s="25">
+      <c r="I88" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J88">
         <v>3</v>
       </c>
-      <c r="K88" s="25"/>
-    </row>
-    <row r="89" spans="1:11">
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+157</v>
       </c>
       <c r="B89">
@@ -7631,36 +7731,35 @@
         <v>0</v>
       </c>
       <c r="D89" s="7">
+        <f t="shared" si="32"/>
+        <v>0.68289999999999984</v>
+      </c>
+      <c r="E89" s="7">
+        <f t="shared" si="27"/>
+        <v>0.28000000000000019</v>
+      </c>
+      <c r="F89" s="7">
+        <f t="shared" si="29"/>
+        <v>3.2500000000000015E-2</v>
+      </c>
+      <c r="G89" s="7">
         <f t="shared" si="30"/>
-        <v>0.68289999999999984</v>
-      </c>
-      <c r="E89" s="7">
-        <f t="shared" si="25"/>
-        <v>0.28000000000000019</v>
-      </c>
-      <c r="F89" s="7">
-        <f t="shared" si="27"/>
-        <v>3.2500000000000015E-2</v>
-      </c>
-      <c r="G89" s="7">
-        <f t="shared" si="28"/>
         <v>4.5999999999999991E-3</v>
       </c>
       <c r="H89" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
-      <c r="I89" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J89" s="25">
+      <c r="I89" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J89">
         <v>3</v>
       </c>
-      <c r="K89" s="25"/>
-    </row>
-    <row r="90" spans="1:11">
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+158</v>
       </c>
       <c r="B90">
@@ -7670,36 +7769,35 @@
         <v>0</v>
       </c>
       <c r="D90" s="7">
+        <f t="shared" si="32"/>
+        <v>0.67729999999999979</v>
+      </c>
+      <c r="E90" s="7">
+        <f t="shared" si="27"/>
+        <v>0.2850000000000002</v>
+      </c>
+      <c r="F90" s="7">
+        <f t="shared" si="29"/>
+        <v>3.3000000000000015E-2</v>
+      </c>
+      <c r="G90" s="7">
         <f t="shared" si="30"/>
-        <v>0.67729999999999979</v>
-      </c>
-      <c r="E90" s="7">
-        <f t="shared" si="25"/>
-        <v>0.2850000000000002</v>
-      </c>
-      <c r="F90" s="7">
-        <f t="shared" si="27"/>
-        <v>3.3000000000000015E-2</v>
-      </c>
-      <c r="G90" s="7">
-        <f t="shared" si="28"/>
         <v>4.6999999999999993E-3</v>
       </c>
       <c r="H90" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
-      <c r="I90" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J90" s="25">
+      <c r="I90" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J90">
         <v>3</v>
       </c>
-      <c r="K90" s="25"/>
-    </row>
-    <row r="91" spans="1:11">
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+159</v>
       </c>
       <c r="B91">
@@ -7709,36 +7807,35 @@
         <v>0</v>
       </c>
       <c r="D91" s="7">
+        <f t="shared" si="32"/>
+        <v>0.67169999999999974</v>
+      </c>
+      <c r="E91" s="7">
+        <f t="shared" si="27"/>
+        <v>0.2900000000000002</v>
+      </c>
+      <c r="F91" s="7">
+        <f t="shared" si="29"/>
+        <v>3.3500000000000016E-2</v>
+      </c>
+      <c r="G91" s="7">
         <f t="shared" si="30"/>
-        <v>0.67169999999999974</v>
-      </c>
-      <c r="E91" s="7">
-        <f t="shared" si="25"/>
-        <v>0.2900000000000002</v>
-      </c>
-      <c r="F91" s="7">
-        <f t="shared" si="27"/>
-        <v>3.3500000000000016E-2</v>
-      </c>
-      <c r="G91" s="7">
-        <f t="shared" si="28"/>
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="H91" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
-      <c r="I91" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J91" s="25">
+      <c r="I91" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J91">
         <v>3</v>
       </c>
-      <c r="K91" s="25"/>
-    </row>
-    <row r="92" spans="1:11">
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+160</v>
       </c>
       <c r="B92">
@@ -7748,36 +7845,35 @@
         <v>0</v>
       </c>
       <c r="D92" s="7">
+        <f t="shared" si="32"/>
+        <v>0.66609999999999969</v>
+      </c>
+      <c r="E92" s="7">
+        <f t="shared" si="27"/>
+        <v>0.29500000000000021</v>
+      </c>
+      <c r="F92" s="7">
+        <f t="shared" si="29"/>
+        <v>3.4000000000000016E-2</v>
+      </c>
+      <c r="G92" s="7">
         <f t="shared" si="30"/>
-        <v>0.66609999999999969</v>
-      </c>
-      <c r="E92" s="7">
-        <f t="shared" si="25"/>
-        <v>0.29500000000000021</v>
-      </c>
-      <c r="F92" s="7">
-        <f t="shared" si="27"/>
-        <v>3.4000000000000016E-2</v>
-      </c>
-      <c r="G92" s="7">
-        <f t="shared" si="28"/>
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="H92" s="9">
         <f>H84+6</f>
         <v>53</v>
       </c>
-      <c r="I92" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J92" s="25">
+      <c r="I92" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J92">
         <v>3</v>
       </c>
-      <c r="K92" s="25"/>
-    </row>
-    <row r="93" spans="1:11" ht="17.25" thickBot="1">
+    </row>
+    <row r="93" spans="1:10" ht="17.25" thickBot="1">
       <c r="A93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002E+161</v>
       </c>
       <c r="B93" s="14">
@@ -7787,36 +7883,35 @@
         <v>0</v>
       </c>
       <c r="D93" s="7">
+        <f t="shared" si="32"/>
+        <v>0.66049999999999975</v>
+      </c>
+      <c r="E93" s="7">
+        <f t="shared" si="27"/>
+        <v>0.30000000000000021</v>
+      </c>
+      <c r="F93" s="7">
+        <f t="shared" si="29"/>
+        <v>3.4500000000000017E-2</v>
+      </c>
+      <c r="G93" s="7">
         <f t="shared" si="30"/>
-        <v>0.66049999999999975</v>
-      </c>
-      <c r="E93" s="7">
-        <f t="shared" si="25"/>
-        <v>0.30000000000000021</v>
-      </c>
-      <c r="F93" s="7">
-        <f t="shared" si="27"/>
-        <v>3.4500000000000017E-2</v>
-      </c>
-      <c r="G93" s="7">
-        <f t="shared" si="28"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H93" s="9">
-        <f t="shared" ref="H93:H103" si="31">H85+6</f>
+        <f t="shared" ref="H93:H103" si="33">H85+6</f>
         <v>53</v>
       </c>
-      <c r="I93" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J93" s="25">
+      <c r="I93" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J93">
         <v>3</v>
       </c>
-      <c r="K93" s="25"/>
-    </row>
-    <row r="94" spans="1:11">
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="B94">
@@ -7826,36 +7921,35 @@
         <v>0</v>
       </c>
       <c r="D94" s="7">
+        <f t="shared" si="32"/>
+        <v>0.65489999999999982</v>
+      </c>
+      <c r="E94" s="7">
+        <f t="shared" si="27"/>
+        <v>0.30500000000000022</v>
+      </c>
+      <c r="F94" s="7">
+        <f t="shared" si="29"/>
+        <v>3.5000000000000017E-2</v>
+      </c>
+      <c r="G94" s="7">
         <f t="shared" si="30"/>
-        <v>0.65489999999999982</v>
-      </c>
-      <c r="E94" s="7">
-        <f t="shared" si="25"/>
-        <v>0.30500000000000022</v>
-      </c>
-      <c r="F94" s="7">
-        <f t="shared" si="27"/>
-        <v>3.5000000000000017E-2</v>
-      </c>
-      <c r="G94" s="7">
-        <f t="shared" si="28"/>
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="H94" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>53</v>
       </c>
-      <c r="I94" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J94" s="25">
+      <c r="I94" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J94">
         <v>3</v>
       </c>
-      <c r="K94" s="25"/>
-    </row>
-    <row r="95" spans="1:11">
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+163</v>
       </c>
       <c r="B95">
@@ -7865,36 +7959,35 @@
         <v>0</v>
       </c>
       <c r="D95" s="7">
+        <f t="shared" si="32"/>
+        <v>0.64929999999999977</v>
+      </c>
+      <c r="E95" s="7">
+        <f t="shared" si="27"/>
+        <v>0.31000000000000022</v>
+      </c>
+      <c r="F95" s="7">
+        <f t="shared" si="29"/>
+        <v>3.5500000000000018E-2</v>
+      </c>
+      <c r="G95" s="7">
         <f t="shared" si="30"/>
-        <v>0.64929999999999977</v>
-      </c>
-      <c r="E95" s="7">
-        <f t="shared" si="25"/>
-        <v>0.31000000000000022</v>
-      </c>
-      <c r="F95" s="7">
-        <f t="shared" si="27"/>
-        <v>3.5500000000000018E-2</v>
-      </c>
-      <c r="G95" s="7">
-        <f t="shared" si="28"/>
         <v>5.2000000000000006E-3</v>
       </c>
       <c r="H95" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>53</v>
       </c>
-      <c r="I95" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J95" s="25">
+      <c r="I95" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J95">
         <v>3</v>
       </c>
-      <c r="K95" s="25"/>
-    </row>
-    <row r="96" spans="1:11">
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+164</v>
       </c>
       <c r="B96">
@@ -7904,36 +7997,35 @@
         <v>0</v>
       </c>
       <c r="D96" s="7">
+        <f t="shared" si="32"/>
+        <v>0.64369999999999972</v>
+      </c>
+      <c r="E96" s="7">
+        <f t="shared" si="27"/>
+        <v>0.31500000000000022</v>
+      </c>
+      <c r="F96" s="7">
+        <f t="shared" si="29"/>
+        <v>3.6000000000000018E-2</v>
+      </c>
+      <c r="G96" s="7">
         <f t="shared" si="30"/>
-        <v>0.64369999999999972</v>
-      </c>
-      <c r="E96" s="7">
-        <f t="shared" si="25"/>
-        <v>0.31500000000000022</v>
-      </c>
-      <c r="F96" s="7">
-        <f t="shared" si="27"/>
-        <v>3.6000000000000018E-2</v>
-      </c>
-      <c r="G96" s="7">
-        <f t="shared" si="28"/>
         <v>5.3000000000000009E-3</v>
       </c>
       <c r="H96" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>53</v>
       </c>
-      <c r="I96" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J96" s="25">
+      <c r="I96" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J96">
         <v>3</v>
       </c>
-      <c r="K96" s="25"/>
-    </row>
-    <row r="97" spans="1:11">
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="B97">
@@ -7943,36 +8035,35 @@
         <v>0</v>
       </c>
       <c r="D97" s="7">
+        <f t="shared" si="32"/>
+        <v>0.63809999999999967</v>
+      </c>
+      <c r="E97" s="7">
+        <f t="shared" si="27"/>
+        <v>0.32000000000000023</v>
+      </c>
+      <c r="F97" s="7">
+        <f t="shared" si="29"/>
+        <v>3.6500000000000019E-2</v>
+      </c>
+      <c r="G97" s="7">
         <f t="shared" si="30"/>
-        <v>0.63809999999999967</v>
-      </c>
-      <c r="E97" s="7">
-        <f t="shared" si="25"/>
-        <v>0.32000000000000023</v>
-      </c>
-      <c r="F97" s="7">
-        <f t="shared" si="27"/>
-        <v>3.6500000000000019E-2</v>
-      </c>
-      <c r="G97" s="7">
-        <f t="shared" si="28"/>
         <v>5.4000000000000012E-3</v>
       </c>
       <c r="H97" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>53</v>
       </c>
-      <c r="I97" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J97" s="25">
+      <c r="I97" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J97">
         <v>3</v>
       </c>
-      <c r="K97" s="25"/>
-    </row>
-    <row r="98" spans="1:11">
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+166</v>
       </c>
       <c r="B98">
@@ -7982,36 +8073,35 @@
         <v>0</v>
       </c>
       <c r="D98" s="7">
+        <f t="shared" si="32"/>
+        <v>0.63249999999999973</v>
+      </c>
+      <c r="E98" s="7">
+        <f t="shared" si="27"/>
+        <v>0.32500000000000023</v>
+      </c>
+      <c r="F98" s="7">
+        <f t="shared" si="29"/>
+        <v>3.7000000000000019E-2</v>
+      </c>
+      <c r="G98" s="7">
         <f t="shared" si="30"/>
-        <v>0.63249999999999973</v>
-      </c>
-      <c r="E98" s="7">
-        <f t="shared" si="25"/>
-        <v>0.32500000000000023</v>
-      </c>
-      <c r="F98" s="7">
-        <f t="shared" si="27"/>
-        <v>3.7000000000000019E-2</v>
-      </c>
-      <c r="G98" s="7">
-        <f t="shared" si="28"/>
         <v>5.5000000000000014E-3</v>
       </c>
       <c r="H98" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>53</v>
       </c>
-      <c r="I98" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J98" s="25">
+      <c r="I98" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J98">
         <v>3</v>
       </c>
-      <c r="K98" s="25"/>
-    </row>
-    <row r="99" spans="1:11">
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+167</v>
       </c>
       <c r="B99">
@@ -8021,36 +8111,35 @@
         <v>0</v>
       </c>
       <c r="D99" s="7">
+        <f t="shared" si="32"/>
+        <v>0.62689999999999979</v>
+      </c>
+      <c r="E99" s="7">
+        <f t="shared" si="27"/>
+        <v>0.33000000000000024</v>
+      </c>
+      <c r="F99" s="7">
+        <f t="shared" si="29"/>
+        <v>3.7500000000000019E-2</v>
+      </c>
+      <c r="G99" s="7">
         <f t="shared" si="30"/>
-        <v>0.62689999999999979</v>
-      </c>
-      <c r="E99" s="7">
-        <f t="shared" si="25"/>
-        <v>0.33000000000000024</v>
-      </c>
-      <c r="F99" s="7">
-        <f t="shared" si="27"/>
-        <v>3.7500000000000019E-2</v>
-      </c>
-      <c r="G99" s="7">
-        <f t="shared" si="28"/>
         <v>5.6000000000000017E-3</v>
       </c>
       <c r="H99" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>53</v>
       </c>
-      <c r="I99" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J99" s="25">
+      <c r="I99" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J99">
         <v>3</v>
       </c>
-      <c r="K99" s="25"/>
-    </row>
-    <row r="100" spans="1:11">
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="B100">
@@ -8060,36 +8149,35 @@
         <v>0</v>
       </c>
       <c r="D100" s="7">
+        <f t="shared" si="32"/>
+        <v>0.62129999999999974</v>
+      </c>
+      <c r="E100" s="7">
+        <f t="shared" si="27"/>
+        <v>0.33500000000000024</v>
+      </c>
+      <c r="F100" s="7">
+        <f t="shared" si="29"/>
+        <v>3.800000000000002E-2</v>
+      </c>
+      <c r="G100" s="7">
         <f t="shared" si="30"/>
-        <v>0.62129999999999974</v>
-      </c>
-      <c r="E100" s="7">
-        <f t="shared" si="25"/>
-        <v>0.33500000000000024</v>
-      </c>
-      <c r="F100" s="7">
-        <f t="shared" si="27"/>
-        <v>3.800000000000002E-2</v>
-      </c>
-      <c r="G100" s="7">
-        <f t="shared" si="28"/>
         <v>5.7000000000000019E-3</v>
       </c>
       <c r="H100" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>59</v>
       </c>
-      <c r="I100" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J100" s="25">
+      <c r="I100" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J100">
         <v>4</v>
       </c>
-      <c r="K100" s="25"/>
-    </row>
-    <row r="101" spans="1:11">
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="B101">
@@ -8099,36 +8187,35 @@
         <v>0</v>
       </c>
       <c r="D101" s="7">
+        <f t="shared" si="32"/>
+        <v>0.61569999999999969</v>
+      </c>
+      <c r="E101" s="7">
+        <f t="shared" si="27"/>
+        <v>0.34000000000000025</v>
+      </c>
+      <c r="F101" s="7">
+        <f t="shared" si="29"/>
+        <v>3.850000000000002E-2</v>
+      </c>
+      <c r="G101" s="7">
         <f t="shared" si="30"/>
-        <v>0.61569999999999969</v>
-      </c>
-      <c r="E101" s="7">
-        <f t="shared" si="25"/>
-        <v>0.34000000000000025</v>
-      </c>
-      <c r="F101" s="7">
-        <f t="shared" si="27"/>
-        <v>3.850000000000002E-2</v>
-      </c>
-      <c r="G101" s="7">
-        <f t="shared" si="28"/>
         <v>5.8000000000000022E-3</v>
       </c>
       <c r="H101" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>59</v>
       </c>
-      <c r="I101" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J101" s="25">
+      <c r="I101" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J101">
         <v>4</v>
       </c>
-      <c r="K101" s="25"/>
-    </row>
-    <row r="102" spans="1:11">
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="B102">
@@ -8138,36 +8225,35 @@
         <v>0</v>
       </c>
       <c r="D102" s="7">
+        <f t="shared" si="32"/>
+        <v>0.61009999999999964</v>
+      </c>
+      <c r="E102" s="7">
+        <f t="shared" si="27"/>
+        <v>0.34500000000000025</v>
+      </c>
+      <c r="F102" s="7">
+        <f t="shared" si="29"/>
+        <v>3.9000000000000021E-2</v>
+      </c>
+      <c r="G102" s="7">
         <f t="shared" si="30"/>
-        <v>0.61009999999999964</v>
-      </c>
-      <c r="E102" s="7">
-        <f t="shared" si="25"/>
-        <v>0.34500000000000025</v>
-      </c>
-      <c r="F102" s="7">
-        <f t="shared" si="27"/>
-        <v>3.9000000000000021E-2</v>
-      </c>
-      <c r="G102" s="7">
-        <f t="shared" si="28"/>
         <v>5.9000000000000025E-3</v>
       </c>
       <c r="H102" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>59</v>
       </c>
-      <c r="I102" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J102" s="25">
+      <c r="I102" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J102">
         <v>4</v>
       </c>
-      <c r="K102" s="25"/>
-    </row>
-    <row r="103" spans="1:11" ht="17.25" thickBot="1">
+    </row>
+    <row r="103" spans="1:10" ht="17.25" thickBot="1">
       <c r="A103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="B103" s="14">
@@ -8177,32 +8263,31 @@
         <v>0</v>
       </c>
       <c r="D103" s="7">
+        <f t="shared" si="32"/>
+        <v>0.6044999999999997</v>
+      </c>
+      <c r="E103" s="7">
+        <f t="shared" si="27"/>
+        <v>0.35000000000000026</v>
+      </c>
+      <c r="F103" s="7">
+        <f t="shared" si="29"/>
+        <v>3.9500000000000021E-2</v>
+      </c>
+      <c r="G103" s="7">
         <f t="shared" si="30"/>
-        <v>0.6044999999999997</v>
-      </c>
-      <c r="E103" s="7">
-        <f t="shared" si="25"/>
-        <v>0.35000000000000026</v>
-      </c>
-      <c r="F103" s="7">
-        <f t="shared" si="27"/>
-        <v>3.9500000000000021E-2</v>
-      </c>
-      <c r="G103" s="7">
-        <f t="shared" si="28"/>
         <v>6.0000000000000027E-3</v>
       </c>
       <c r="H103" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>59</v>
       </c>
-      <c r="I103" s="24">
-        <v>9028</v>
-      </c>
-      <c r="J103" s="25">
+      <c r="I103" s="1">
+        <v>9028</v>
+      </c>
+      <c r="J103">
         <v>4</v>
       </c>
-      <c r="K103" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8225,5 +8310,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D2D8B2-E7AE-410D-919D-7296B264D68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1047A9-3D4E-4CAF-BBEB-C28E5A887B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,9 +346,6 @@
     <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>1-2</t>
-  </si>
 </sst>
 </file>
 
@@ -631,15 +628,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -656,6 +644,15 @@
         </top>
         <bottom style="dashed">
           <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -971,11 +968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1390,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="26">
-        <f t="shared" ref="D9:D50" si="0">D8*10</f>
+        <f t="shared" ref="D9:D58" si="0">D8*10</f>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="E9">
@@ -3383,8 +3380,9 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>33</v>
+      <c r="B49" s="25" t="str">
+        <f>B48</f>
+        <v>1-1</v>
       </c>
       <c r="C49" s="1">
         <v>4</v>
@@ -3433,8 +3431,9 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="25" t="s">
-        <v>80</v>
+      <c r="B50" s="25" t="str">
+        <f t="shared" ref="B50:B58" si="1">B49</f>
+        <v>1-1</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
@@ -3479,16 +3478,424 @@
         <v>2</v>
       </c>
     </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4</v>
+      </c>
+      <c r="D51" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+121</v>
+      </c>
+      <c r="E51">
+        <v>11800</v>
+      </c>
+      <c r="F51" s="10">
+        <f>VLOOKUP(A51,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.28449999999999986</v>
+      </c>
+      <c r="G51" s="10">
+        <f>VLOOKUP(A51,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H51" s="10">
+        <f>VLOOKUP(A51,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="I51" s="10">
+        <f>VLOOKUP(A51,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.4500000000000004E-2</v>
+      </c>
+      <c r="J51" s="10">
+        <f>VLOOKUP(A51,Balance1!$B:$J,6,FALSE)</f>
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="K51" s="9">
+        <f>VLOOKUP(A51,Balance1!$B:$J,7,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="L51" s="1">
+        <f>VLOOKUP(A51,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M51">
+        <f>VLOOKUP(A51,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4</v>
+      </c>
+      <c r="D52" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+122</v>
+      </c>
+      <c r="E52">
+        <v>12000</v>
+      </c>
+      <c r="F52" s="10">
+        <f>VLOOKUP(A52,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.26889999999999992</v>
+      </c>
+      <c r="G52" s="10">
+        <f>VLOOKUP(A52,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="H52" s="10">
+        <f>VLOOKUP(A52,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.10500000000000004</v>
+      </c>
+      <c r="I52" s="10">
+        <f>VLOOKUP(A52,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.5000000000000005E-2</v>
+      </c>
+      <c r="J52" s="10">
+        <f>VLOOKUP(A52,Balance1!$B:$J,6,FALSE)</f>
+        <v>1.1000000000000003E-3</v>
+      </c>
+      <c r="K52" s="9">
+        <f>VLOOKUP(A52,Balance1!$B:$J,7,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="L52" s="1">
+        <f>VLOOKUP(A52,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M52">
+        <f>VLOOKUP(A52,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4</v>
+      </c>
+      <c r="D53" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+123</v>
+      </c>
+      <c r="E53">
+        <v>12200</v>
+      </c>
+      <c r="F53" s="10">
+        <f>VLOOKUP(A53,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.25329999999999986</v>
+      </c>
+      <c r="G53" s="10">
+        <f>VLOOKUP(A53,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="H53" s="10">
+        <f>VLOOKUP(A53,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.11000000000000004</v>
+      </c>
+      <c r="I53" s="10">
+        <f>VLOOKUP(A53,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.5500000000000005E-2</v>
+      </c>
+      <c r="J53" s="10">
+        <f>VLOOKUP(A53,Balance1!$B:$J,6,FALSE)</f>
+        <v>1.2000000000000003E-3</v>
+      </c>
+      <c r="K53" s="9">
+        <f>VLOOKUP(A53,Balance1!$B:$J,7,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="L53" s="1">
+        <f>VLOOKUP(A53,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M53">
+        <f>VLOOKUP(A53,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+124</v>
+      </c>
+      <c r="E54">
+        <v>12400</v>
+      </c>
+      <c r="F54" s="10">
+        <f>VLOOKUP(A54,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.23769999999999991</v>
+      </c>
+      <c r="G54" s="10">
+        <f>VLOOKUP(A54,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="H54" s="10">
+        <f>VLOOKUP(A54,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.11500000000000005</v>
+      </c>
+      <c r="I54" s="10">
+        <f>VLOOKUP(A54,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.6000000000000004E-2</v>
+      </c>
+      <c r="J54" s="10">
+        <f>VLOOKUP(A54,Balance1!$B:$J,6,FALSE)</f>
+        <v>1.3000000000000004E-3</v>
+      </c>
+      <c r="K54" s="9">
+        <f>VLOOKUP(A54,Balance1!$B:$J,7,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="L54" s="1">
+        <f>VLOOKUP(A54,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M54">
+        <f>VLOOKUP(A54,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+125</v>
+      </c>
+      <c r="E55">
+        <v>12600</v>
+      </c>
+      <c r="F55" s="10">
+        <f>VLOOKUP(A55,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.22209999999999985</v>
+      </c>
+      <c r="G55" s="10">
+        <f>VLOOKUP(A55,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H55" s="10">
+        <f>VLOOKUP(A55,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.12000000000000005</v>
+      </c>
+      <c r="I55" s="10">
+        <f>VLOOKUP(A55,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.6500000000000004E-2</v>
+      </c>
+      <c r="J55" s="10">
+        <f>VLOOKUP(A55,Balance1!$B:$J,6,FALSE)</f>
+        <v>1.4000000000000004E-3</v>
+      </c>
+      <c r="K55" s="9">
+        <f>VLOOKUP(A55,Balance1!$B:$J,7,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="L55" s="1">
+        <f>VLOOKUP(A55,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M55">
+        <f>VLOOKUP(A55,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4</v>
+      </c>
+      <c r="D56" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+126</v>
+      </c>
+      <c r="E56">
+        <v>12800</v>
+      </c>
+      <c r="F56" s="10">
+        <f>VLOOKUP(A56,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.20649999999999991</v>
+      </c>
+      <c r="G56" s="10">
+        <f>VLOOKUP(A56,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="H56" s="10">
+        <f>VLOOKUP(A56,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="I56" s="10">
+        <f>VLOOKUP(A56,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.7000000000000005E-2</v>
+      </c>
+      <c r="J56" s="10">
+        <f>VLOOKUP(A56,Balance1!$B:$J,6,FALSE)</f>
+        <v>1.5000000000000005E-3</v>
+      </c>
+      <c r="K56" s="9">
+        <f>VLOOKUP(A56,Balance1!$B:$J,7,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="L56" s="1">
+        <f>VLOOKUP(A56,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M56">
+        <f>VLOOKUP(A56,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+127</v>
+      </c>
+      <c r="E57">
+        <v>13000</v>
+      </c>
+      <c r="F57" s="10">
+        <f>VLOOKUP(A57,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.19089999999999974</v>
+      </c>
+      <c r="G57" s="10">
+        <f>VLOOKUP(A57,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="H57" s="10">
+        <f>VLOOKUP(A57,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.13000000000000006</v>
+      </c>
+      <c r="I57" s="10">
+        <f>VLOOKUP(A57,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.7500000000000005E-2</v>
+      </c>
+      <c r="J57" s="10">
+        <f>VLOOKUP(A57,Balance1!$B:$J,6,FALSE)</f>
+        <v>1.6000000000000005E-3</v>
+      </c>
+      <c r="K57" s="9">
+        <f>VLOOKUP(A57,Balance1!$B:$J,7,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="L57" s="1">
+        <f>VLOOKUP(A57,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M57">
+        <f>VLOOKUP(A57,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4</v>
+      </c>
+      <c r="D58" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="E58">
+        <v>13200</v>
+      </c>
+      <c r="F58" s="10">
+        <f>VLOOKUP(A58,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.17529999999999979</v>
+      </c>
+      <c r="G58" s="10">
+        <f>VLOOKUP(A58,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.67000000000000015</v>
+      </c>
+      <c r="H58" s="10">
+        <f>VLOOKUP(A58,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.13500000000000006</v>
+      </c>
+      <c r="I58" s="10">
+        <f>VLOOKUP(A58,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.8000000000000006E-2</v>
+      </c>
+      <c r="J58" s="10">
+        <f>VLOOKUP(A58,Balance1!$B:$J,6,FALSE)</f>
+        <v>1.7000000000000006E-3</v>
+      </c>
+      <c r="K58" s="9">
+        <f>VLOOKUP(A58,Balance1!$B:$J,7,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="L58" s="1">
+        <f>VLOOKUP(A58,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M58">
+        <f>VLOOKUP(A58,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E50">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$C2=5</formula>
+  <conditionalFormatting sqref="A1:M1048576">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>MOD(ROW()-1,4)=0</formula>
+  <conditionalFormatting sqref="D2:E58">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3500,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
   <dimension ref="A2:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:G52"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3603,6 +4010,7 @@
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4" s="7"/>
       <c r="L4" t="s">
         <v>60</v>
       </c>
@@ -3641,6 +4049,7 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5" s="7"/>
       <c r="L5">
         <v>1</v>
       </c>
@@ -3680,6 +4089,7 @@
       <c r="J6">
         <v>1</v>
       </c>
+      <c r="K6" s="7"/>
       <c r="L6">
         <v>2</v>
       </c>
@@ -3715,6 +4125,7 @@
       <c r="J7">
         <v>1</v>
       </c>
+      <c r="K7" s="7"/>
       <c r="L7">
         <v>3</v>
       </c>
@@ -3750,6 +4161,7 @@
       <c r="J8">
         <v>1</v>
       </c>
+      <c r="K8" s="7"/>
       <c r="L8" s="21">
         <v>4</v>
       </c>
@@ -3785,6 +4197,7 @@
       <c r="J9">
         <v>1</v>
       </c>
+      <c r="K9" s="7"/>
       <c r="M9">
         <f>SUM(M5:M8)</f>
         <v>100</v>
@@ -3818,6 +4231,7 @@
       <c r="J10">
         <v>1</v>
       </c>
+      <c r="K10" s="7"/>
       <c r="L10" t="s">
         <v>74</v>
       </c>
@@ -3850,6 +4264,7 @@
       <c r="J11">
         <v>1</v>
       </c>
+      <c r="K11" s="7"/>
       <c r="L11" t="s">
         <v>47</v>
       </c>
@@ -3915,6 +4330,7 @@
       <c r="J12">
         <v>1</v>
       </c>
+      <c r="K12" s="7"/>
       <c r="L12" t="s">
         <v>51</v>
       </c>
@@ -3988,6 +4404,7 @@
       <c r="J13" s="14">
         <v>1</v>
       </c>
+      <c r="K13" s="7"/>
       <c r="L13" t="s">
         <v>52</v>
       </c>
@@ -4063,6 +4480,7 @@
       <c r="J14">
         <v>1</v>
       </c>
+      <c r="K14" s="7"/>
       <c r="L14" t="s">
         <v>53</v>
       </c>
@@ -4138,6 +4556,7 @@
       <c r="J15">
         <v>1</v>
       </c>
+      <c r="K15" s="7"/>
       <c r="L15" t="s">
         <v>54</v>
       </c>
@@ -4213,6 +4632,7 @@
       <c r="J16">
         <v>1</v>
       </c>
+      <c r="K16" s="7"/>
       <c r="L16" t="s">
         <v>55</v>
       </c>
@@ -4288,6 +4708,7 @@
       <c r="J17">
         <v>1</v>
       </c>
+      <c r="K17" s="7"/>
       <c r="L17" t="s">
         <v>56</v>
       </c>
@@ -4359,6 +4780,7 @@
       <c r="J18">
         <v>1</v>
       </c>
+      <c r="K18" s="7"/>
       <c r="P18" t="s">
         <v>72</v>
       </c>
@@ -4396,6 +4818,7 @@
       <c r="J19">
         <v>1</v>
       </c>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:26">
       <c r="B20">
@@ -4426,6 +4849,7 @@
       <c r="J20">
         <v>1</v>
       </c>
+      <c r="K20" s="7"/>
       <c r="L20" t="s">
         <v>73</v>
       </c>
@@ -4462,6 +4886,7 @@
       <c r="J21">
         <v>1</v>
       </c>
+      <c r="K21" s="7"/>
       <c r="L21" t="s">
         <v>58</v>
       </c>
@@ -4528,6 +4953,7 @@
       <c r="J22">
         <v>1</v>
       </c>
+      <c r="K22" s="7"/>
       <c r="L22" t="s">
         <v>61</v>
       </c>
@@ -4608,6 +5034,7 @@
       <c r="J23" s="14">
         <v>1</v>
       </c>
+      <c r="K23" s="7"/>
       <c r="L23" t="s">
         <v>62</v>
       </c>
@@ -4688,6 +5115,7 @@
       <c r="J24">
         <v>1</v>
       </c>
+      <c r="K24" s="7"/>
       <c r="L24" t="s">
         <v>63</v>
       </c>
@@ -4768,6 +5196,7 @@
       <c r="J25">
         <v>1</v>
       </c>
+      <c r="K25" s="7"/>
       <c r="L25" t="s">
         <v>64</v>
       </c>
@@ -4848,6 +5277,7 @@
       <c r="J26">
         <v>1</v>
       </c>
+      <c r="K26" s="7"/>
       <c r="L26" t="s">
         <v>65</v>
       </c>
@@ -4928,6 +5358,7 @@
       <c r="J27">
         <v>1</v>
       </c>
+      <c r="K27" s="7"/>
       <c r="L27" t="s">
         <v>66</v>
       </c>
@@ -5008,6 +5439,7 @@
       <c r="J28">
         <v>1</v>
       </c>
+      <c r="K28" s="7"/>
       <c r="P28" t="s">
         <v>72</v>
       </c>
@@ -5049,6 +5481,7 @@
       <c r="J29">
         <v>1</v>
       </c>
+      <c r="K29" s="7"/>
       <c r="P29" s="24" t="s">
         <v>76</v>
       </c>
@@ -5083,6 +5516,7 @@
       <c r="J30">
         <v>1</v>
       </c>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="2:26">
       <c r="B31">
@@ -5113,6 +5547,7 @@
       <c r="J31">
         <v>1</v>
       </c>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="2:26">
       <c r="B32">
@@ -5143,6 +5578,7 @@
       <c r="J32">
         <v>1</v>
       </c>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:25" ht="17.25" thickBot="1">
       <c r="B33" s="14">
@@ -5173,6 +5609,7 @@
       <c r="J33" s="14">
         <v>1</v>
       </c>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:25">
       <c r="B34">
@@ -5203,6 +5640,7 @@
       <c r="J34">
         <v>1</v>
       </c>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:25">
       <c r="B35">
@@ -5233,6 +5671,7 @@
       <c r="J35">
         <v>1</v>
       </c>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:25">
       <c r="B36">
@@ -5263,6 +5702,7 @@
       <c r="J36">
         <v>2</v>
       </c>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:25">
       <c r="B37">
@@ -5293,6 +5733,7 @@
       <c r="J37">
         <v>2</v>
       </c>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:25">
       <c r="B38">
@@ -5323,6 +5764,7 @@
       <c r="J38">
         <v>2</v>
       </c>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:25">
       <c r="B39">
@@ -5353,6 +5795,7 @@
       <c r="J39">
         <v>2</v>
       </c>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:25">
       <c r="B40">
@@ -5383,6 +5826,7 @@
       <c r="J40">
         <v>2</v>
       </c>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:25">
       <c r="B41">
@@ -5413,6 +5857,7 @@
       <c r="J41">
         <v>2</v>
       </c>
+      <c r="K41" s="7"/>
       <c r="L41" s="3" t="s">
         <v>6</v>
       </c>
@@ -5452,6 +5897,7 @@
       <c r="J42">
         <v>2</v>
       </c>
+      <c r="K42" s="7"/>
       <c r="L42" s="4" t="s">
         <v>7</v>
       </c>
@@ -5494,6 +5940,7 @@
       <c r="J43" s="14">
         <v>2</v>
       </c>
+      <c r="K43" s="7"/>
       <c r="L43" s="5" t="s">
         <v>9</v>
       </c>
@@ -5546,6 +5993,7 @@
       <c r="J44">
         <v>2</v>
       </c>
+      <c r="K44" s="7"/>
       <c r="L44" s="5" t="s">
         <v>11</v>
       </c>
@@ -5600,6 +6048,7 @@
       <c r="J45">
         <v>2</v>
       </c>
+      <c r="K45" s="7"/>
       <c r="L45" s="5" t="s">
         <v>12</v>
       </c>
@@ -5654,6 +6103,7 @@
       <c r="J46">
         <v>2</v>
       </c>
+      <c r="K46" s="7"/>
       <c r="L46" s="5" t="s">
         <v>13</v>
       </c>
@@ -5708,6 +6158,7 @@
       <c r="J47">
         <v>2</v>
       </c>
+      <c r="K47" s="7"/>
       <c r="L47" s="5" t="s">
         <v>14</v>
       </c>
@@ -5762,6 +6213,7 @@
       <c r="J48">
         <v>2</v>
       </c>
+      <c r="K48" s="7"/>
       <c r="L48" s="5" t="s">
         <v>15</v>
       </c>
@@ -5820,6 +6272,7 @@
       <c r="J49">
         <v>2</v>
       </c>
+      <c r="K49" s="7"/>
       <c r="L49" s="5" t="s">
         <v>16</v>
       </c>
@@ -5874,6 +6327,7 @@
       <c r="J50">
         <v>2</v>
       </c>
+      <c r="K50" s="7"/>
       <c r="L50" s="5" t="s">
         <v>17</v>
       </c>
@@ -5927,6 +6381,7 @@
       <c r="J51">
         <v>2</v>
       </c>
+      <c r="K51" s="7"/>
       <c r="L51" s="5" t="s">
         <v>18</v>
       </c>
@@ -5980,6 +6435,7 @@
       <c r="J52">
         <v>2</v>
       </c>
+      <c r="K52" s="7"/>
       <c r="L52" s="5" t="s">
         <v>19</v>
       </c>
@@ -6033,6 +6489,7 @@
       <c r="J53">
         <v>2</v>
       </c>
+      <c r="K53" s="7"/>
       <c r="L53" s="5" t="s">
         <v>20</v>
       </c>
@@ -6086,6 +6543,7 @@
       <c r="J54">
         <v>2</v>
       </c>
+      <c r="K54" s="7"/>
       <c r="L54" s="5" t="s">
         <v>21</v>
       </c>
@@ -6139,6 +6597,7 @@
       <c r="J55">
         <v>2</v>
       </c>
+      <c r="K55" s="7"/>
       <c r="L55" s="5" t="s">
         <v>23</v>
       </c>
@@ -6192,6 +6651,7 @@
       <c r="J56">
         <v>2</v>
       </c>
+      <c r="K56" s="7"/>
       <c r="L56" s="5" t="s">
         <v>24</v>
       </c>
@@ -6245,6 +6705,7 @@
       <c r="J57">
         <v>2</v>
       </c>
+      <c r="K57" s="7"/>
       <c r="L57" s="5" t="s">
         <v>25</v>
       </c>
@@ -6298,6 +6759,7 @@
       <c r="J58">
         <v>2</v>
       </c>
+      <c r="K58" s="7"/>
       <c r="L58" s="5" t="s">
         <v>26</v>
       </c>
@@ -6351,6 +6813,7 @@
       <c r="J59">
         <v>2</v>
       </c>
+      <c r="K59" s="7"/>
       <c r="L59" s="5" t="s">
         <v>27</v>
       </c>
@@ -6404,6 +6867,7 @@
       <c r="J60">
         <v>2</v>
       </c>
+      <c r="K60" s="7"/>
       <c r="L60" s="5" t="s">
         <v>28</v>
       </c>
@@ -6457,6 +6921,7 @@
       <c r="J61">
         <v>2</v>
       </c>
+      <c r="K61" s="7"/>
       <c r="L61" s="5" t="s">
         <v>29</v>
       </c>
@@ -6510,6 +6975,7 @@
       <c r="J62">
         <v>2</v>
       </c>
+      <c r="K62" s="7"/>
       <c r="L62" s="5" t="s">
         <v>30</v>
       </c>
@@ -6563,6 +7029,7 @@
       <c r="J63">
         <v>2</v>
       </c>
+      <c r="K63" s="7"/>
       <c r="L63" s="5" t="s">
         <v>31</v>
       </c>
@@ -6616,6 +7083,7 @@
       <c r="J64">
         <v>2</v>
       </c>
+      <c r="K64" s="7"/>
       <c r="L64" s="5" t="s">
         <v>10</v>
       </c>
@@ -6669,6 +7137,7 @@
       <c r="J65">
         <v>2</v>
       </c>
+      <c r="K65" s="7"/>
       <c r="L65" s="5" t="s">
         <v>22</v>
       </c>
@@ -6722,6 +7191,7 @@
       <c r="J66">
         <v>2</v>
       </c>
+      <c r="K66" s="7"/>
       <c r="L66" s="5" t="s">
         <v>32</v>
       </c>
@@ -6775,6 +7245,7 @@
       <c r="J67">
         <v>2</v>
       </c>
+      <c r="K67" s="7"/>
       <c r="L67" s="5" t="s">
         <v>42</v>
       </c>
@@ -6828,6 +7299,7 @@
       <c r="J68">
         <v>3</v>
       </c>
+      <c r="K68" s="7"/>
       <c r="L68" s="5" t="s">
         <v>43</v>
       </c>
@@ -6881,6 +7353,7 @@
       <c r="J69">
         <v>3</v>
       </c>
+      <c r="K69" s="7"/>
       <c r="L69" s="5" t="s">
         <v>44</v>
       </c>
@@ -6934,6 +7407,7 @@
       <c r="J70">
         <v>3</v>
       </c>
+      <c r="K70" s="7"/>
       <c r="L70" s="5" t="s">
         <v>68</v>
       </c>
@@ -6987,6 +7461,7 @@
       <c r="J71">
         <v>3</v>
       </c>
+      <c r="K71" s="7"/>
       <c r="L71" s="5" t="s">
         <v>69</v>
       </c>
@@ -7011,12 +7486,11 @@
         <v>68</v>
       </c>
       <c r="C72" s="23">
-        <f t="shared" si="25"/>
-        <v>-1.1900000000000244E-2</v>
+        <v>0</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="26"/>
-        <v>0.79000000000000026</v>
+        <f>100%-(E72+F72+G72)</f>
+        <v>0.7780999999999999</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="27"/>
@@ -7040,6 +7514,7 @@
       <c r="J72">
         <v>3</v>
       </c>
+      <c r="K72" s="7"/>
       <c r="L72" s="5" t="s">
         <v>45</v>
       </c>
@@ -7092,6 +7567,7 @@
       <c r="J73">
         <v>3</v>
       </c>
+      <c r="K73" s="7"/>
       <c r="L73" s="5" t="s">
         <v>46</v>
       </c>
@@ -7144,6 +7620,7 @@
       <c r="J74">
         <v>3</v>
       </c>
+      <c r="K74" s="7"/>
       <c r="L74" s="5" t="s">
         <v>77</v>
       </c>
@@ -7196,6 +7673,7 @@
       <c r="J75">
         <v>3</v>
       </c>
+      <c r="K75" s="7"/>
       <c r="L75" s="5" t="s">
         <v>78</v>
       </c>
@@ -7248,6 +7726,7 @@
       <c r="J76">
         <v>3</v>
       </c>
+      <c r="K76" s="7"/>
       <c r="L76" s="5" t="s">
         <v>79</v>
       </c>
@@ -7300,6 +7779,7 @@
       <c r="J77">
         <v>3</v>
       </c>
+      <c r="K77" s="7"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78">
@@ -7338,6 +7818,7 @@
       <c r="J78">
         <v>3</v>
       </c>
+      <c r="K78" s="7"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79">
@@ -7376,6 +7857,7 @@
       <c r="J79">
         <v>3</v>
       </c>
+      <c r="K79" s="7"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80">
@@ -7414,8 +7896,9 @@
       <c r="J80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+149</v>
@@ -7452,8 +7935,9 @@
       <c r="J81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+150</v>
@@ -7490,8 +7974,9 @@
       <c r="J82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="17.25" thickBot="1">
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83" spans="1:11" ht="17.25" thickBot="1">
       <c r="A83">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+151</v>
@@ -7528,8 +8013,9 @@
       <c r="J83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+152</v>
@@ -7566,8 +8052,9 @@
       <c r="J84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+153</v>
@@ -7604,8 +8091,9 @@
       <c r="J85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+154</v>
@@ -7642,8 +8130,9 @@
       <c r="J86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+155</v>
@@ -7680,8 +8169,9 @@
       <c r="J87">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+156</v>
@@ -7718,8 +8208,9 @@
       <c r="J88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+157</v>
@@ -7756,8 +8247,9 @@
       <c r="J89">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+158</v>
@@ -7794,8 +8286,9 @@
       <c r="J90">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+159</v>
@@ -7832,8 +8325,9 @@
       <c r="J91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+160</v>
@@ -7870,8 +8364,9 @@
       <c r="J92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="17.25" thickBot="1">
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="1:11" ht="17.25" thickBot="1">
       <c r="A93">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+161</v>
@@ -7908,8 +8403,9 @@
       <c r="J93">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+162</v>
@@ -7946,8 +8442,9 @@
       <c r="J94">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+163</v>
@@ -7984,8 +8481,9 @@
       <c r="J95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+164</v>
@@ -8022,8 +8520,9 @@
       <c r="J96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+165</v>
@@ -8060,8 +8559,9 @@
       <c r="J97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+166</v>
@@ -8098,8 +8598,9 @@
       <c r="J98">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98" s="7"/>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <f t="shared" si="24"/>
         <v>1E+167</v>
@@ -8136,8 +8637,9 @@
       <c r="J99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <f t="shared" si="24"/>
         <v>9.9999999999999993E+167</v>
@@ -8174,8 +8676,9 @@
       <c r="J100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <f t="shared" si="24"/>
         <v>9.9999999999999993E+168</v>
@@ -8212,8 +8715,9 @@
       <c r="J101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101" s="7"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <f t="shared" si="24"/>
         <v>9.999999999999999E+169</v>
@@ -8250,8 +8754,9 @@
       <c r="J102">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="17.25" thickBot="1">
+      <c r="K102" s="7"/>
+    </row>
+    <row r="103" spans="1:11" ht="17.25" thickBot="1">
       <c r="A103">
         <f t="shared" si="24"/>
         <v>9.9999999999999995E+170</v>
@@ -8288,17 +8793,18 @@
       <c r="J103">
         <v>4</v>
       </c>
+      <c r="K103" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B42:B43 B52:B53 B62:B63 B72:B73 B82:B83 B92:B93 B102:B103">
-    <cfRule type="expression" dxfId="3" priority="54">
-      <formula>#REF!=5</formula>
+  <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101">
+    <cfRule type="expression" dxfId="3" priority="55">
+      <formula>$C6=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101">
-    <cfRule type="expression" dxfId="2" priority="55">
-      <formula>$C6=5</formula>
+  <conditionalFormatting sqref="B42:B43 B52:B53 B62:B63 B72:B73 B82:B83 B92:B93 B102:B103">
+    <cfRule type="expression" dxfId="2" priority="54">
+      <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28">
